--- a/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D2" t="n">
-        <v>828587</v>
+        <v>833087</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D3" t="n">
-        <v>1773916</v>
+        <v>1774716</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5072</v>
+        <v>5073</v>
       </c>
       <c r="D6" t="n">
-        <v>6839802</v>
+        <v>6841302</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="D7" t="n">
-        <v>1506300</v>
+        <v>1513672</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4282</v>
+        <v>4291</v>
       </c>
       <c r="D8" t="n">
-        <v>6163859</v>
+        <v>6177449</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="D11" t="n">
-        <v>1007800</v>
+        <v>1013504</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="D12" t="n">
-        <v>3166847</v>
+        <v>3168347</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="D14" t="n">
-        <v>2285063</v>
+        <v>2287713</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2108</v>
+        <v>2112</v>
       </c>
       <c r="D16" t="n">
-        <v>2584925</v>
+        <v>2590360</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3691</v>
+        <v>3694</v>
       </c>
       <c r="D23" t="n">
-        <v>4775978</v>
+        <v>4778297</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D36" t="n">
-        <v>1819620</v>
+        <v>1821120</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="D40" t="n">
-        <v>4855954</v>
+        <v>4857454</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4756</v>
+        <v>4757</v>
       </c>
       <c r="D42" t="n">
-        <v>6701941</v>
+        <v>6702206</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D46" t="n">
-        <v>1802817</v>
+        <v>1804273</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="D50" t="n">
-        <v>2036916</v>
+        <v>2039720</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D53" t="n">
-        <v>462512</v>
+        <v>464012</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="D59" t="n">
-        <v>2550749</v>
+        <v>2552249</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D64" t="n">
-        <v>266858</v>
+        <v>267803</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D67" t="n">
-        <v>480606</v>
+        <v>481038</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4523</v>
+        <v>4524</v>
       </c>
       <c r="D72" t="n">
-        <v>6430613</v>
+        <v>6432113</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6401</v>
+        <v>6402</v>
       </c>
       <c r="D73" t="n">
-        <v>8318037</v>
+        <v>8318537</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5312</v>
+        <v>5313</v>
       </c>
       <c r="D75" t="n">
-        <v>7585237</v>
+        <v>7586737</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2827</v>
+        <v>2829</v>
       </c>
       <c r="D79" t="n">
-        <v>3796022</v>
+        <v>3799022</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="D80" t="n">
-        <v>1890615</v>
+        <v>1895115</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4222,10 +4222,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="D81" t="n">
-        <v>2747029</v>
+        <v>2748471</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="D82" t="n">
-        <v>4447585</v>
+        <v>4447885</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2796</v>
+        <v>2797</v>
       </c>
       <c r="D83" t="n">
-        <v>3330843</v>
+        <v>3332343</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D85" t="n">
-        <v>1113909</v>
+        <v>1115409</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2653</v>
+        <v>2658</v>
       </c>
       <c r="D92" t="n">
-        <v>3726653</v>
+        <v>3734153</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -5038,10 +5038,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D98" t="n">
-        <v>715948</v>
+        <v>718948</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5134,10 +5134,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D100" t="n">
-        <v>892344</v>
+        <v>893844</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="D104" t="n">
-        <v>2656095</v>
+        <v>2657595</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5518,10 +5518,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>7289</v>
+        <v>7291</v>
       </c>
       <c r="D108" t="n">
-        <v>9833007</v>
+        <v>9835261</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="D109" t="n">
-        <v>2322992</v>
+        <v>2325992</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>8230</v>
+        <v>8233</v>
       </c>
       <c r="D110" t="n">
-        <v>11847512</v>
+        <v>11852012</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="D111" t="n">
-        <v>1456506</v>
+        <v>1459506</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5806,10 +5806,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>5619</v>
+        <v>5625</v>
       </c>
       <c r="D114" t="n">
-        <v>7532026</v>
+        <v>7539406</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3149</v>
+        <v>3154</v>
       </c>
       <c r="D115" t="n">
-        <v>4144511</v>
+        <v>4150206</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>9354</v>
+        <v>9361</v>
       </c>
       <c r="D116" t="n">
-        <v>12043334</v>
+        <v>12050470</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5019</v>
+        <v>5024</v>
       </c>
       <c r="D118" t="n">
-        <v>6441175</v>
+        <v>6444527</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -6046,10 +6046,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>5642</v>
+        <v>5645</v>
       </c>
       <c r="D119" t="n">
-        <v>6822664</v>
+        <v>6824358</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="D122" t="n">
-        <v>4208127</v>
+        <v>4209627</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>11298</v>
+        <v>11303</v>
       </c>
       <c r="D126" t="n">
-        <v>15112301</v>
+        <v>15119801</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3546</v>
+        <v>3548</v>
       </c>
       <c r="D127" t="n">
-        <v>4972977</v>
+        <v>4975977</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6478,10 +6478,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>11172</v>
+        <v>11191</v>
       </c>
       <c r="D128" t="n">
-        <v>15953759</v>
+        <v>15975977</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D130" t="n">
-        <v>882471</v>
+        <v>883711</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6622,10 +6622,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="D131" t="n">
-        <v>3219519</v>
+        <v>3222519</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>7243</v>
+        <v>7252</v>
       </c>
       <c r="D132" t="n">
-        <v>9780168</v>
+        <v>9792969</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>3764</v>
+        <v>3769</v>
       </c>
       <c r="D133" t="n">
-        <v>4904667</v>
+        <v>4910043</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>6803</v>
+        <v>6816</v>
       </c>
       <c r="D135" t="n">
-        <v>8528264</v>
+        <v>8542195</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>5607</v>
+        <v>5620</v>
       </c>
       <c r="D137" t="n">
-        <v>6890457</v>
+        <v>6906962</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -6958,10 +6958,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>7875</v>
+        <v>7876</v>
       </c>
       <c r="D138" t="n">
-        <v>9493845</v>
+        <v>9494965</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>5888</v>
+        <v>5889</v>
       </c>
       <c r="D143" t="n">
-        <v>8439485</v>
+        <v>8440985</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>7910</v>
+        <v>7911</v>
       </c>
       <c r="D144" t="n">
-        <v>10341678</v>
+        <v>10341915</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>5930</v>
+        <v>5936</v>
       </c>
       <c r="D146" t="n">
-        <v>8438779</v>
+        <v>8446517</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D147" t="n">
-        <v>797263</v>
+        <v>798199</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3008</v>
+        <v>3013</v>
       </c>
       <c r="D150" t="n">
-        <v>3986825</v>
+        <v>3992706</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="D151" t="n">
-        <v>2097246</v>
+        <v>2099661</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2162</v>
+        <v>2165</v>
       </c>
       <c r="D153" t="n">
-        <v>2555081</v>
+        <v>2557457</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2744</v>
+        <v>2751</v>
       </c>
       <c r="D155" t="n">
-        <v>3311041</v>
+        <v>3321232</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>4726</v>
+        <v>4731</v>
       </c>
       <c r="D156" t="n">
-        <v>5773977</v>
+        <v>5777686</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D157" t="n">
-        <v>1103326</v>
+        <v>1103861</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="D164" t="n">
-        <v>2328655</v>
+        <v>2330155</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>6202</v>
+        <v>6204</v>
       </c>
       <c r="D165" t="n">
-        <v>8734510</v>
+        <v>8737510</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D166" t="n">
-        <v>785535</v>
+        <v>787241</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="D169" t="n">
-        <v>4030911</v>
+        <v>4032411</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8494,10 +8494,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D170" t="n">
-        <v>1550394</v>
+        <v>1553394</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8542,10 +8542,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="D171" t="n">
-        <v>2525104</v>
+        <v>2528092</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8638,10 +8638,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2503</v>
+        <v>2512</v>
       </c>
       <c r="D173" t="n">
-        <v>3043687</v>
+        <v>3053965</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3960</v>
+        <v>3962</v>
       </c>
       <c r="D174" t="n">
-        <v>4721384</v>
+        <v>4722190</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -8734,10 +8734,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D175" t="n">
-        <v>2018966</v>
+        <v>2020466</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>4942</v>
+        <v>4949</v>
       </c>
       <c r="D176" t="n">
-        <v>6409451</v>
+        <v>6417329</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -8926,10 +8926,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>13533</v>
+        <v>13536</v>
       </c>
       <c r="D179" t="n">
-        <v>19578194</v>
+        <v>19581219</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -8974,10 +8974,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>21347</v>
+        <v>21355</v>
       </c>
       <c r="D180" t="n">
-        <v>28544437</v>
+        <v>28552180</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>18842</v>
+        <v>18854</v>
       </c>
       <c r="D181" t="n">
-        <v>26478484</v>
+        <v>26495984</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>15644</v>
+        <v>15660</v>
       </c>
       <c r="D182" t="n">
-        <v>22512181</v>
+        <v>22532652</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>4170</v>
+        <v>4173</v>
       </c>
       <c r="D183" t="n">
-        <v>5494637</v>
+        <v>5499137</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>3978</v>
+        <v>3979</v>
       </c>
       <c r="D185" t="n">
-        <v>5470367</v>
+        <v>5471867</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>19137</v>
+        <v>19159</v>
       </c>
       <c r="D186" t="n">
-        <v>25626600</v>
+        <v>25648676</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -9310,10 +9310,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>8171</v>
+        <v>8176</v>
       </c>
       <c r="D187" t="n">
-        <v>10713010</v>
+        <v>10718876</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -9406,10 +9406,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>8030</v>
+        <v>8035</v>
       </c>
       <c r="D189" t="n">
-        <v>9419365</v>
+        <v>9423183</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>13961</v>
+        <v>13964</v>
       </c>
       <c r="D190" t="n">
-        <v>18838325</v>
+        <v>18842357</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>10931</v>
+        <v>10974</v>
       </c>
       <c r="D191" t="n">
-        <v>13456577</v>
+        <v>13510532</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9550,10 +9550,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>11463</v>
+        <v>11469</v>
       </c>
       <c r="D192" t="n">
-        <v>14278668</v>
+        <v>14285776</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -9598,10 +9598,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D193" t="n">
-        <v>655338</v>
+        <v>658338</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="D194" t="n">
-        <v>1898457</v>
+        <v>1901685</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3877</v>
+        <v>3878</v>
       </c>
       <c r="D196" t="n">
-        <v>5591389</v>
+        <v>5592889</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>5085</v>
+        <v>5089</v>
       </c>
       <c r="D197" t="n">
-        <v>6885481</v>
+        <v>6890941</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9886,10 +9886,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>6385</v>
+        <v>6399</v>
       </c>
       <c r="D199" t="n">
-        <v>9257163</v>
+        <v>9278472</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="D202" t="n">
-        <v>2381933</v>
+        <v>2383433</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3444</v>
+        <v>3447</v>
       </c>
       <c r="D203" t="n">
-        <v>4658458</v>
+        <v>4662958</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10126,10 +10126,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="D204" t="n">
-        <v>2302236</v>
+        <v>2306703</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>12106</v>
+        <v>12112</v>
       </c>
       <c r="D205" t="n">
-        <v>16619382</v>
+        <v>16626600</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2876</v>
+        <v>2880</v>
       </c>
       <c r="D207" t="n">
-        <v>3607125</v>
+        <v>3610375</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10318,10 +10318,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>3220</v>
+        <v>3223</v>
       </c>
       <c r="D208" t="n">
-        <v>3923364</v>
+        <v>3925849</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>5312</v>
+        <v>5314</v>
       </c>
       <c r="D214" t="n">
-        <v>7087419</v>
+        <v>7089741</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>4117</v>
+        <v>4121</v>
       </c>
       <c r="D216" t="n">
-        <v>5879049</v>
+        <v>5885049</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -10750,10 +10750,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D217" t="n">
-        <v>558835</v>
+        <v>561163</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D219" t="n">
-        <v>1005703</v>
+        <v>1007203</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -11134,10 +11134,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D225" t="n">
-        <v>2372696</v>
+        <v>2377132</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D227" t="n">
-        <v>511917</v>
+        <v>513417</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="D228" t="n">
-        <v>1402261</v>
+        <v>1404899</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11422,10 +11422,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="D231" t="n">
-        <v>3355691</v>
+        <v>3357191</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>4420</v>
+        <v>4421</v>
       </c>
       <c r="D232" t="n">
-        <v>5781417</v>
+        <v>5782917</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D233" t="n">
-        <v>795465</v>
+        <v>796965</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3622</v>
+        <v>3625</v>
       </c>
       <c r="D234" t="n">
-        <v>5194883</v>
+        <v>5196983</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D235" t="n">
-        <v>496403</v>
+        <v>497903</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="D238" t="n">
-        <v>2591782</v>
+        <v>2591951</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11902,10 +11902,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D241" t="n">
-        <v>1779298</v>
+        <v>1780696</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -11998,10 +11998,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="D243" t="n">
-        <v>2261583</v>
+        <v>2263083</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>2877</v>
+        <v>2881</v>
       </c>
       <c r="D244" t="n">
-        <v>3517315</v>
+        <v>3521413</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D250" t="n">
-        <v>2477959</v>
+        <v>2481129</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="D252" t="n">
-        <v>2000538</v>
+        <v>2003538</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12574,10 +12574,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D255" t="n">
-        <v>232041</v>
+        <v>235041</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D256" t="n">
-        <v>725288</v>
+        <v>728570</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D257" t="n">
-        <v>396300</v>
+        <v>397800</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12910,10 +12910,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D262" t="n">
-        <v>719281</v>
+        <v>722281</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -12958,10 +12958,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D263" t="n">
-        <v>969029</v>
+        <v>969960</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -13102,10 +13102,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="D266" t="n">
-        <v>2899506</v>
+        <v>2902431</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="D268" t="n">
-        <v>3083950</v>
+        <v>3085450</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13246,10 +13246,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D269" t="n">
-        <v>205094</v>
+        <v>208094</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -13438,10 +13438,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D273" t="n">
-        <v>491100</v>
+        <v>492600</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13582,10 +13582,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D276" t="n">
-        <v>1148817</v>
+        <v>1149967</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D277" t="n">
-        <v>1860458</v>
+        <v>1861108</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -14398,10 +14398,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D293" t="n">
-        <v>874054</v>
+        <v>875719</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>5068</v>
+        <v>5069</v>
       </c>
       <c r="D299" t="n">
-        <v>6640648</v>
+        <v>6642148</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D300" t="n">
-        <v>645672</v>
+        <v>646872</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14782,10 +14782,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>4921</v>
+        <v>4925</v>
       </c>
       <c r="D301" t="n">
-        <v>6970857</v>
+        <v>6976857</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -14878,10 +14878,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D303" t="n">
-        <v>205120</v>
+        <v>206620</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -15022,10 +15022,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D306" t="n">
-        <v>1384990</v>
+        <v>1386490</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="D307" t="n">
-        <v>1575096</v>
+        <v>1578096</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D309" t="n">
-        <v>2392759</v>
+        <v>2400124</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D322" t="n">
-        <v>248352</v>
+        <v>249852</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D328" t="n">
-        <v>895720</v>
+        <v>896185</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16174,10 +16174,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="D330" t="n">
-        <v>2811506</v>
+        <v>2813006</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>2891</v>
+        <v>2895</v>
       </c>
       <c r="D331" t="n">
-        <v>3781019</v>
+        <v>3786332</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16270,10 +16270,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D332" t="n">
-        <v>649253</v>
+        <v>650753</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16318,10 +16318,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>2545</v>
+        <v>2548</v>
       </c>
       <c r="D333" t="n">
-        <v>3584133</v>
+        <v>3588633</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="D337" t="n">
-        <v>1374906</v>
+        <v>1385406</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>1271</v>
+        <v>1279</v>
       </c>
       <c r="D342" t="n">
-        <v>1519057</v>
+        <v>1524286</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>1721</v>
+        <v>1726</v>
       </c>
       <c r="D343" t="n">
-        <v>2096238</v>
+        <v>2102667</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="D345" t="n">
-        <v>1863779</v>
+        <v>1866779</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>5749</v>
+        <v>5752</v>
       </c>
       <c r="D350" t="n">
-        <v>8130724</v>
+        <v>8135354</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D351" t="n">
-        <v>541436</v>
+        <v>545660</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17326,10 +17326,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="D354" t="n">
-        <v>2600763</v>
+        <v>2603133</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -17374,10 +17374,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="D355" t="n">
-        <v>1230610</v>
+        <v>1236610</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17518,10 +17518,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="D358" t="n">
-        <v>2351861</v>
+        <v>2355867</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -17614,10 +17614,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D360" t="n">
-        <v>1001978</v>
+        <v>1003533</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17662,10 +17662,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="D361" t="n">
-        <v>2741574</v>
+        <v>2743074</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D366" t="n">
-        <v>1813541</v>
+        <v>1815041</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>7437</v>
+        <v>7439</v>
       </c>
       <c r="D367" t="n">
-        <v>10621879</v>
+        <v>10624879</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -17998,10 +17998,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D368" t="n">
-        <v>877433</v>
+        <v>878283</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18142,10 +18142,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>3127</v>
+        <v>3131</v>
       </c>
       <c r="D371" t="n">
-        <v>4173015</v>
+        <v>4178022</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -18286,10 +18286,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="D374" t="n">
-        <v>2586453</v>
+        <v>2587953</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -18334,10 +18334,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>4495</v>
+        <v>4497</v>
       </c>
       <c r="D375" t="n">
-        <v>6042349</v>
+        <v>6045349</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>2961</v>
+        <v>2966</v>
       </c>
       <c r="D376" t="n">
-        <v>3517716</v>
+        <v>3523281</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>4552</v>
+        <v>4554</v>
       </c>
       <c r="D377" t="n">
-        <v>5582149</v>
+        <v>5583798</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D378" t="n">
-        <v>852985</v>
+        <v>853385</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>7609</v>
+        <v>7611</v>
       </c>
       <c r="D384" t="n">
-        <v>10185521</v>
+        <v>10188521</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>7218</v>
+        <v>7228</v>
       </c>
       <c r="D386" t="n">
-        <v>10430260</v>
+        <v>10445328</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>5733</v>
+        <v>5739</v>
       </c>
       <c r="D390" t="n">
-        <v>7618038</v>
+        <v>7625446</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>2620</v>
+        <v>2624</v>
       </c>
       <c r="D393" t="n">
-        <v>3191105</v>
+        <v>3196019</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>3979</v>
+        <v>3993</v>
       </c>
       <c r="D395" t="n">
-        <v>4801470</v>
+        <v>4818102</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19342,10 +19342,10 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>5216</v>
+        <v>5218</v>
       </c>
       <c r="D396" t="n">
-        <v>6444327</v>
+        <v>6445395</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="D397" t="n">
-        <v>1637131</v>
+        <v>1640131</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>2379</v>
+        <v>2382</v>
       </c>
       <c r="D399" t="n">
-        <v>2947454</v>
+        <v>2950052</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19630,10 +19630,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>3876</v>
+        <v>3877</v>
       </c>
       <c r="D402" t="n">
-        <v>5533134</v>
+        <v>5534634</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>6619</v>
+        <v>6620</v>
       </c>
       <c r="D403" t="n">
-        <v>8891712</v>
+        <v>8892531</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19918,10 +19918,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D408" t="n">
-        <v>1694804</v>
+        <v>1695554</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -19966,10 +19966,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>3503</v>
+        <v>3511</v>
       </c>
       <c r="D409" t="n">
-        <v>4731285</v>
+        <v>4742276</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20014,10 +20014,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="D410" t="n">
-        <v>2203496</v>
+        <v>2203783</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -20062,10 +20062,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="D411" t="n">
-        <v>2577451</v>
+        <v>2578951</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>2936</v>
+        <v>2942</v>
       </c>
       <c r="D413" t="n">
-        <v>3473701</v>
+        <v>3479272</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20302,10 +20302,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="D416" t="n">
-        <v>845769</v>
+        <v>849516</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="D420" t="n">
-        <v>2996082</v>
+        <v>2997081</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2170</v>
+        <v>2176</v>
       </c>
       <c r="D422" t="n">
-        <v>3077269</v>
+        <v>3085119</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D428" t="n">
-        <v>705617</v>
+        <v>708131</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20974,10 +20974,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D430" t="n">
-        <v>1039522</v>
+        <v>1041022</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D439" t="n">
-        <v>535716</v>
+        <v>536193</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21550,10 +21550,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="D442" t="n">
-        <v>1672671</v>
+        <v>1675671</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D443" t="n">
-        <v>1277686</v>
+        <v>1280686</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21646,10 +21646,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D444" t="n">
-        <v>1176654</v>
+        <v>1177584</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D445" t="n">
-        <v>1580795</v>
+        <v>1582151</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21742,10 +21742,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D446" t="n">
-        <v>1425741</v>
+        <v>1427978</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -22126,10 +22126,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="D454" t="n">
-        <v>2382774</v>
+        <v>2385774</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22462,10 +22462,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D461" t="n">
-        <v>525342</v>
+        <v>526142</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>4532</v>
+        <v>4533</v>
       </c>
       <c r="D469" t="n">
-        <v>6045202</v>
+        <v>6046213</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -22894,10 +22894,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="D470" t="n">
-        <v>2187563</v>
+        <v>2189063</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -22942,10 +22942,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>4692</v>
+        <v>4696</v>
       </c>
       <c r="D471" t="n">
-        <v>6707195</v>
+        <v>6710882</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -22990,10 +22990,10 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D472" t="n">
-        <v>854092</v>
+        <v>857092</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
@@ -23134,10 +23134,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>2955</v>
+        <v>2959</v>
       </c>
       <c r="D475" t="n">
-        <v>3937182</v>
+        <v>3942132</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -23182,10 +23182,10 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D476" t="n">
-        <v>1653169</v>
+        <v>1654386</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -23230,10 +23230,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="D477" t="n">
-        <v>2205247</v>
+        <v>2206747</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="D478" t="n">
-        <v>3967433</v>
+        <v>3968475</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="D479" t="n">
-        <v>3150341</v>
+        <v>3153341</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23470,10 +23470,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="D482" t="n">
-        <v>1456701</v>
+        <v>1462860</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23662,10 +23662,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>5536</v>
+        <v>5538</v>
       </c>
       <c r="D486" t="n">
-        <v>7085919</v>
+        <v>7088919</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="D487" t="n">
-        <v>2221200</v>
+        <v>2222700</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>3703</v>
+        <v>3707</v>
       </c>
       <c r="D488" t="n">
-        <v>5331647</v>
+        <v>5337647</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23902,10 +23902,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D491" t="n">
-        <v>774040</v>
+        <v>777075</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>2384</v>
+        <v>2386</v>
       </c>
       <c r="D492" t="n">
-        <v>3222167</v>
+        <v>3225167</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D494" t="n">
-        <v>1635505</v>
+        <v>1636155</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24142,10 +24142,10 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>2297</v>
+        <v>2301</v>
       </c>
       <c r="D496" t="n">
-        <v>2795183</v>
+        <v>2801183</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
@@ -24190,10 +24190,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>3610</v>
+        <v>3612</v>
       </c>
       <c r="D497" t="n">
-        <v>4368370</v>
+        <v>4371370</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -24526,10 +24526,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="D504" t="n">
-        <v>4128083</v>
+        <v>4128520</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24574,10 +24574,10 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D505" t="n">
-        <v>262253</v>
+        <v>263753</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="D508" t="n">
-        <v>1443717</v>
+        <v>1445997</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24910,10 +24910,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="D512" t="n">
-        <v>1268448</v>
+        <v>1271598</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -25246,10 +25246,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D519" t="n">
-        <v>729162</v>
+        <v>733662</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>3309</v>
+        <v>3312</v>
       </c>
       <c r="D520" t="n">
-        <v>4762566</v>
+        <v>4766666</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25438,10 +25438,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D523" t="n">
-        <v>1162139</v>
+        <v>1165139</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -25534,10 +25534,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="D525" t="n">
-        <v>1561088</v>
+        <v>1562688</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25582,10 +25582,10 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D526" t="n">
-        <v>836429</v>
+        <v>837929</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -25678,10 +25678,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D528" t="n">
-        <v>891097</v>
+        <v>891209</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -25726,10 +25726,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D529" t="n">
-        <v>1669321</v>
+        <v>1670771</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D530" t="n">
-        <v>2176997</v>
+        <v>2178497</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="D531" t="n">
-        <v>1605572</v>
+        <v>1611572</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25918,10 +25918,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="D533" t="n">
-        <v>3363308</v>
+        <v>3364778</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -25966,10 +25966,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>2951</v>
+        <v>2954</v>
       </c>
       <c r="D534" t="n">
-        <v>4116577</v>
+        <v>4121077</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>3813</v>
+        <v>3815</v>
       </c>
       <c r="D536" t="n">
-        <v>5442365</v>
+        <v>5444245</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26110,10 +26110,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D537" t="n">
-        <v>305061</v>
+        <v>306561</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26206,10 +26206,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="D539" t="n">
-        <v>974147</v>
+        <v>982772</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -26254,10 +26254,10 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D540" t="n">
-        <v>2558440</v>
+        <v>2561440</v>
       </c>
       <c r="E540" t="inlineStr">
         <is>
@@ -26446,10 +26446,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D544" t="n">
-        <v>1179462</v>
+        <v>1180962</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D545" t="n">
-        <v>1794467</v>
+        <v>1795367</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="D552" t="n">
-        <v>2819953</v>
+        <v>2821453</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D561" t="n">
-        <v>1689357</v>
+        <v>1690857</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D563" t="n">
-        <v>734336</v>
+        <v>735836</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27502,10 +27502,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="D566" t="n">
-        <v>2986334</v>
+        <v>2987834</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -27550,10 +27550,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D567" t="n">
-        <v>723557</v>
+        <v>725057</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27598,10 +27598,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D568" t="n">
-        <v>2878208</v>
+        <v>2882708</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>9650</v>
+        <v>9652</v>
       </c>
       <c r="D584" t="n">
-        <v>12947666</v>
+        <v>12950666</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28414,10 +28414,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>3761</v>
+        <v>3763</v>
       </c>
       <c r="D585" t="n">
-        <v>5205303</v>
+        <v>5208303</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>8022</v>
+        <v>8037</v>
       </c>
       <c r="D586" t="n">
-        <v>11533003</v>
+        <v>11553357</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28510,10 +28510,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="D587" t="n">
-        <v>1800074</v>
+        <v>1801022</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -28606,10 +28606,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D589" t="n">
-        <v>2656130</v>
+        <v>2657630</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>6452</v>
+        <v>6458</v>
       </c>
       <c r="D590" t="n">
-        <v>8567438</v>
+        <v>8573426</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>3014</v>
+        <v>3018</v>
       </c>
       <c r="D593" t="n">
-        <v>3563376</v>
+        <v>3568936</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28846,10 +28846,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>6417</v>
+        <v>6419</v>
       </c>
       <c r="D594" t="n">
-        <v>8861979</v>
+        <v>8863042</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>4485</v>
+        <v>4489</v>
       </c>
       <c r="D595" t="n">
-        <v>5423996</v>
+        <v>5427294</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -28942,10 +28942,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>6458</v>
+        <v>6459</v>
       </c>
       <c r="D596" t="n">
-        <v>7877306</v>
+        <v>7878806</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -29222,10 +29222,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D602" t="n">
-        <v>1889189</v>
+        <v>1889357</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
@@ -29606,10 +29606,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D610" t="n">
-        <v>315999</v>
+        <v>316479</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -29654,10 +29654,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D611" t="n">
-        <v>500330</v>
+        <v>501830</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29798,10 +29798,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D614" t="n">
-        <v>1211674</v>
+        <v>1213174</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -30086,10 +30086,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D620" t="n">
-        <v>1160950</v>
+        <v>1161610</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -30134,10 +30134,10 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>5307</v>
+        <v>5309</v>
       </c>
       <c r="D621" t="n">
-        <v>7690998</v>
+        <v>7693998</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -30326,10 +30326,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>3292</v>
+        <v>3300</v>
       </c>
       <c r="D625" t="n">
-        <v>4407135</v>
+        <v>4415217</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30374,10 +30374,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="D626" t="n">
-        <v>2029214</v>
+        <v>2030714</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -30518,10 +30518,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="D629" t="n">
-        <v>2462570</v>
+        <v>2467004</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -30614,10 +30614,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>1694</v>
+        <v>1703</v>
       </c>
       <c r="D631" t="n">
-        <v>2423548</v>
+        <v>2437048</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30662,10 +30662,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D632" t="n">
-        <v>1168906</v>
+        <v>1170406</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30854,10 +30854,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="D636" t="n">
-        <v>1971743</v>
+        <v>1974743</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -30902,10 +30902,10 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>3223</v>
+        <v>3226</v>
       </c>
       <c r="D637" t="n">
-        <v>4603635</v>
+        <v>4607635</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
@@ -30950,10 +30950,10 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D638" t="n">
-        <v>472718</v>
+        <v>474218</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
@@ -31046,10 +31046,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D640" t="n">
-        <v>720106</v>
+        <v>721606</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -31094,10 +31094,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="D641" t="n">
-        <v>2849624</v>
+        <v>2850316</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -31142,10 +31142,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D642" t="n">
-        <v>1308514</v>
+        <v>1310014</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -31190,10 +31190,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="D643" t="n">
-        <v>1401772</v>
+        <v>1405122</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -31286,10 +31286,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="D645" t="n">
-        <v>2059634</v>
+        <v>2063174</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -31430,10 +31430,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D648" t="n">
-        <v>1594180</v>
+        <v>1595213</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -31622,10 +31622,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>5398</v>
+        <v>5399</v>
       </c>
       <c r="D652" t="n">
-        <v>7060761</v>
+        <v>7062261</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31718,10 +31718,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>3700</v>
+        <v>3706</v>
       </c>
       <c r="D654" t="n">
-        <v>5276731</v>
+        <v>5285731</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31766,10 +31766,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D655" t="n">
-        <v>765141</v>
+        <v>767568</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31910,10 +31910,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>2529</v>
+        <v>2534</v>
       </c>
       <c r="D658" t="n">
-        <v>3333210</v>
+        <v>3339926</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -31958,10 +31958,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D659" t="n">
-        <v>1332619</v>
+        <v>1333267</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -32102,10 +32102,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>2164</v>
+        <v>2168</v>
       </c>
       <c r="D662" t="n">
-        <v>2546993</v>
+        <v>2550154</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -32150,10 +32150,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="D663" t="n">
-        <v>4371702</v>
+        <v>4373202</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32294,10 +32294,10 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D666" t="n">
-        <v>498969</v>
+        <v>499275</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -32774,10 +32774,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D676" t="n">
-        <v>291572</v>
+        <v>294512</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32870,10 +32870,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D678" t="n">
-        <v>632432</v>
+        <v>632971</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -32918,10 +32918,10 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D679" t="n">
-        <v>499964</v>
+        <v>500374</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -33062,10 +33062,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>1573</v>
+        <v>1577</v>
       </c>
       <c r="D682" t="n">
-        <v>2025713</v>
+        <v>2030144</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33206,10 +33206,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>5508</v>
+        <v>5509</v>
       </c>
       <c r="D685" t="n">
-        <v>7933788</v>
+        <v>7935133</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33254,10 +33254,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>8011</v>
+        <v>8012</v>
       </c>
       <c r="D686" t="n">
-        <v>10715838</v>
+        <v>10717338</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -33350,10 +33350,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>5748</v>
+        <v>5749</v>
       </c>
       <c r="D688" t="n">
-        <v>8289300</v>
+        <v>8290800</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33542,10 +33542,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>3174</v>
+        <v>3176</v>
       </c>
       <c r="D692" t="n">
-        <v>4196875</v>
+        <v>4199655</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -33590,10 +33590,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="D693" t="n">
-        <v>1831476</v>
+        <v>1834426</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -33638,10 +33638,10 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="D694" t="n">
-        <v>2326149</v>
+        <v>2326531</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -33734,10 +33734,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="D696" t="n">
-        <v>2630800</v>
+        <v>2634418</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33782,10 +33782,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>5965</v>
+        <v>5968</v>
       </c>
       <c r="D697" t="n">
-        <v>6944306</v>
+        <v>6946746</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -33878,10 +33878,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D699" t="n">
-        <v>1474793</v>
+        <v>1475557</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -34022,10 +34022,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="D702" t="n">
-        <v>3686258</v>
+        <v>3687758</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -34070,10 +34070,10 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>3836</v>
+        <v>3838</v>
       </c>
       <c r="D703" t="n">
-        <v>5041024</v>
+        <v>5042275</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -34118,10 +34118,10 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D704" t="n">
-        <v>371562</v>
+        <v>371752</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -34166,10 +34166,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>3364</v>
+        <v>3366</v>
       </c>
       <c r="D705" t="n">
-        <v>4743602</v>
+        <v>4745264</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -34358,10 +34358,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="D709" t="n">
-        <v>1748606</v>
+        <v>1751606</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -34454,10 +34454,10 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D711" t="n">
-        <v>1137317</v>
+        <v>1140317</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -34550,10 +34550,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="D713" t="n">
-        <v>1418856</v>
+        <v>1421594</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -34598,10 +34598,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="D714" t="n">
-        <v>2758905</v>
+        <v>2760789</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34646,10 +34646,10 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>8019</v>
+        <v>8022</v>
       </c>
       <c r="D715" t="n">
-        <v>10999357</v>
+        <v>11003857</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -34886,10 +34886,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>5556</v>
+        <v>5559</v>
       </c>
       <c r="D720" t="n">
-        <v>8031441</v>
+        <v>8035941</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -34934,10 +34934,10 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>9089</v>
+        <v>9090</v>
       </c>
       <c r="D721" t="n">
-        <v>12635401</v>
+        <v>12636901</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -34982,10 +34982,10 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>2671</v>
+        <v>2676</v>
       </c>
       <c r="D722" t="n">
-        <v>3725416</v>
+        <v>3732916</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -35030,10 +35030,10 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>8524</v>
+        <v>8540</v>
       </c>
       <c r="D723" t="n">
-        <v>12173183</v>
+        <v>12196650</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -35078,10 +35078,10 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D724" t="n">
-        <v>1214016</v>
+        <v>1215016</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -35126,10 +35126,10 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D725" t="n">
-        <v>428460</v>
+        <v>434460</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -35222,10 +35222,10 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>3369</v>
+        <v>3371</v>
       </c>
       <c r="D727" t="n">
-        <v>4732322</v>
+        <v>4735322</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -35270,10 +35270,10 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>4784</v>
+        <v>4788</v>
       </c>
       <c r="D728" t="n">
-        <v>6596461</v>
+        <v>6602331</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -35318,10 +35318,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="D729" t="n">
-        <v>2603134</v>
+        <v>2606134</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -35366,10 +35366,10 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="D730" t="n">
-        <v>3293959</v>
+        <v>3295459</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -35414,10 +35414,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="D731" t="n">
-        <v>2576923</v>
+        <v>2579723</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -35550,10 +35550,10 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>3822</v>
+        <v>3828</v>
       </c>
       <c r="D734" t="n">
-        <v>6537402</v>
+        <v>6549252</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -35598,10 +35598,10 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D735" t="n">
-        <v>246237</v>
+        <v>249237</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -35646,10 +35646,10 @@
         </is>
       </c>
       <c r="C736" t="n">
-        <v>1734</v>
+        <v>1739</v>
       </c>
       <c r="D736" t="n">
-        <v>3349886</v>
+        <v>3361818</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
@@ -35790,10 +35790,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>4773</v>
+        <v>4792</v>
       </c>
       <c r="D739" t="n">
-        <v>9958194</v>
+        <v>10015194</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -35838,10 +35838,10 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>4086</v>
+        <v>4094</v>
       </c>
       <c r="D740" t="n">
-        <v>7966795</v>
+        <v>7984103</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -35886,10 +35886,10 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D741" t="n">
-        <v>2708387</v>
+        <v>2711219</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -35934,10 +35934,10 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>2846</v>
+        <v>2850</v>
       </c>
       <c r="D742" t="n">
-        <v>5594738</v>
+        <v>5605218</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -36030,10 +36030,10 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D744" t="n">
-        <v>382993</v>
+        <v>388993</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -36078,10 +36078,10 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D745" t="n">
-        <v>685053</v>
+        <v>688053</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -36126,10 +36126,10 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>1657</v>
+        <v>1662</v>
       </c>
       <c r="D746" t="n">
-        <v>3148776</v>
+        <v>3159640</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -36174,10 +36174,10 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="D747" t="n">
-        <v>3541092</v>
+        <v>3558690</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -36222,10 +36222,10 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D748" t="n">
-        <v>1162968</v>
+        <v>1165968</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -36270,10 +36270,10 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D749" t="n">
-        <v>1200873</v>
+        <v>1203873</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -36366,10 +36366,10 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D751" t="n">
-        <v>2295121</v>
+        <v>2298121</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -36654,10 +36654,10 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D757" t="n">
-        <v>1178865</v>
+        <v>1182733</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -36702,10 +36702,10 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="D758" t="n">
-        <v>3834037</v>
+        <v>3835537</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -36894,10 +36894,10 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D762" t="n">
-        <v>1390055</v>
+        <v>1393055</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -36942,10 +36942,10 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D763" t="n">
-        <v>838133</v>
+        <v>841133</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -37230,10 +37230,10 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>3669</v>
+        <v>3670</v>
       </c>
       <c r="D769" t="n">
-        <v>4495503</v>
+        <v>4496778</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -37326,10 +37326,10 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>9966</v>
+        <v>9969</v>
       </c>
       <c r="D771" t="n">
-        <v>14147607</v>
+        <v>14152107</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -37374,10 +37374,10 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>19274</v>
+        <v>19287</v>
       </c>
       <c r="D772" t="n">
-        <v>24419210</v>
+        <v>24436696</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -37422,10 +37422,10 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>9031</v>
+        <v>9037</v>
       </c>
       <c r="D773" t="n">
-        <v>12398301</v>
+        <v>12405629</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -37470,10 +37470,10 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>16105</v>
+        <v>16132</v>
       </c>
       <c r="D774" t="n">
-        <v>23140771</v>
+        <v>23182376</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -37518,10 +37518,10 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>2499</v>
+        <v>2502</v>
       </c>
       <c r="D775" t="n">
-        <v>3249053</v>
+        <v>3253553</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -37614,10 +37614,10 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="D777" t="n">
-        <v>2667562</v>
+        <v>2669062</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -37662,10 +37662,10 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>11432</v>
+        <v>11439</v>
       </c>
       <c r="D778" t="n">
-        <v>15426991</v>
+        <v>15435435</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -37710,10 +37710,10 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>4283</v>
+        <v>4289</v>
       </c>
       <c r="D779" t="n">
-        <v>5506154</v>
+        <v>5515154</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -37758,10 +37758,10 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>4861</v>
+        <v>4866</v>
       </c>
       <c r="D780" t="n">
-        <v>5860175</v>
+        <v>5863221</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -37854,10 +37854,10 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>7257</v>
+        <v>7272</v>
       </c>
       <c r="D782" t="n">
-        <v>8818021</v>
+        <v>8835097</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -37902,10 +37902,10 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>12485</v>
+        <v>12487</v>
       </c>
       <c r="D783" t="n">
-        <v>14802734</v>
+        <v>14804276</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -37998,10 +37998,10 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D785" t="n">
-        <v>1556506</v>
+        <v>1556961</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -38142,10 +38142,10 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="D788" t="n">
-        <v>6008848</v>
+        <v>6009754</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -38190,10 +38190,10 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>5926</v>
+        <v>5928</v>
       </c>
       <c r="D789" t="n">
-        <v>7852997</v>
+        <v>7855987</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -38238,10 +38238,10 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>4346</v>
+        <v>4351</v>
       </c>
       <c r="D790" t="n">
-        <v>6230747</v>
+        <v>6238247</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -38286,10 +38286,10 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>4060</v>
+        <v>4064</v>
       </c>
       <c r="D791" t="n">
-        <v>5848162</v>
+        <v>5854162</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -38334,10 +38334,10 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D792" t="n">
-        <v>841253</v>
+        <v>843126</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -38478,10 +38478,10 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="D795" t="n">
-        <v>3679208</v>
+        <v>3680708</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -38526,10 +38526,10 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="D796" t="n">
-        <v>1987353</v>
+        <v>1988853</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -38574,10 +38574,10 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="D797" t="n">
-        <v>2312094</v>
+        <v>2313094</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -38670,10 +38670,10 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>2259</v>
+        <v>2264</v>
       </c>
       <c r="D799" t="n">
-        <v>2802708</v>
+        <v>2808236</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -38766,10 +38766,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D801" t="n">
-        <v>1017952</v>
+        <v>1019452</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -38862,10 +38862,10 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>1921</v>
+        <v>1926</v>
       </c>
       <c r="D803" t="n">
-        <v>2356663</v>
+        <v>2363424</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
@@ -39006,10 +39006,10 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>6046</v>
+        <v>6048</v>
       </c>
       <c r="D806" t="n">
-        <v>8585662</v>
+        <v>8588662</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -39054,10 +39054,10 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>10918</v>
+        <v>10921</v>
       </c>
       <c r="D807" t="n">
-        <v>13761275</v>
+        <v>13763670</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -39150,10 +39150,10 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>8046</v>
+        <v>8055</v>
       </c>
       <c r="D809" t="n">
-        <v>11425541</v>
+        <v>11437727</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -39342,10 +39342,10 @@
         </is>
       </c>
       <c r="C813" t="n">
-        <v>3712</v>
+        <v>3713</v>
       </c>
       <c r="D813" t="n">
-        <v>4982071</v>
+        <v>4982871</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -39390,10 +39390,10 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>2038</v>
+        <v>2045</v>
       </c>
       <c r="D814" t="n">
-        <v>2533552</v>
+        <v>2544052</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -39438,10 +39438,10 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="D815" t="n">
-        <v>2478606</v>
+        <v>2479440</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -39534,10 +39534,10 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>3023</v>
+        <v>3025</v>
       </c>
       <c r="D817" t="n">
-        <v>3571389</v>
+        <v>3572504</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -39582,10 +39582,10 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>7734</v>
+        <v>7736</v>
       </c>
       <c r="D818" t="n">
-        <v>8802398</v>
+        <v>8804020</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -40158,10 +40158,10 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D830" t="n">
-        <v>1986797</v>
+        <v>1989631</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -40398,10 +40398,10 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>1856</v>
+        <v>1865</v>
       </c>
       <c r="D835" t="n">
-        <v>2203004</v>
+        <v>2215390</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -40446,10 +40446,10 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="D836" t="n">
-        <v>3239706</v>
+        <v>3239919</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -40494,10 +40494,10 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D837" t="n">
-        <v>174215</v>
+        <v>175715</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -40542,10 +40542,10 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="D838" t="n">
-        <v>2178980</v>
+        <v>2179475</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -40686,10 +40686,10 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>7690</v>
+        <v>7691</v>
       </c>
       <c r="D841" t="n">
-        <v>11058050</v>
+        <v>11059550</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -40734,10 +40734,10 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>9206</v>
+        <v>9216</v>
       </c>
       <c r="D842" t="n">
-        <v>12355929</v>
+        <v>12367927</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -40782,10 +40782,10 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>18901</v>
+        <v>18915</v>
       </c>
       <c r="D843" t="n">
-        <v>27242818</v>
+        <v>27262784</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -40830,10 +40830,10 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>5304</v>
+        <v>5312</v>
       </c>
       <c r="D844" t="n">
-        <v>7739425</v>
+        <v>7749980</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -40878,10 +40878,10 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="D845" t="n">
-        <v>2680199</v>
+        <v>2681699</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -40974,10 +40974,10 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D847" t="n">
-        <v>2260267</v>
+        <v>2261767</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -41022,10 +41022,10 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>6401</v>
+        <v>6407</v>
       </c>
       <c r="D848" t="n">
-        <v>8641322</v>
+        <v>8647889</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -41118,10 +41118,10 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D850" t="n">
-        <v>3728815</v>
+        <v>3730315</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -41166,10 +41166,10 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>4755</v>
+        <v>4758</v>
       </c>
       <c r="D851" t="n">
-        <v>6406226</v>
+        <v>6406757</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -41214,10 +41214,10 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>4309</v>
+        <v>4316</v>
       </c>
       <c r="D852" t="n">
-        <v>5366230</v>
+        <v>5371537</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
@@ -41262,10 +41262,10 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>5747</v>
+        <v>5754</v>
       </c>
       <c r="D853" t="n">
-        <v>7160088</v>
+        <v>7168405</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -41550,10 +41550,10 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>11933</v>
+        <v>11940</v>
       </c>
       <c r="D859" t="n">
-        <v>16370535</v>
+        <v>16379714</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -41598,10 +41598,10 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34724</v>
+        <v>34750</v>
       </c>
       <c r="D860" t="n">
-        <v>49622729</v>
+        <v>49661348</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -41646,10 +41646,10 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>11404</v>
+        <v>11416</v>
       </c>
       <c r="D861" t="n">
-        <v>16724459</v>
+        <v>16743455</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -41694,10 +41694,10 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>6907</v>
+        <v>6928</v>
       </c>
       <c r="D862" t="n">
-        <v>9565307</v>
+        <v>9594928</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -41790,10 +41790,10 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>3534</v>
+        <v>3537</v>
       </c>
       <c r="D864" t="n">
-        <v>4977679</v>
+        <v>4980958</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -41838,10 +41838,10 @@
         </is>
       </c>
       <c r="C865" t="n">
-        <v>21199</v>
+        <v>21223</v>
       </c>
       <c r="D865" t="n">
-        <v>29083521</v>
+        <v>29115195</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
@@ -41886,10 +41886,10 @@
         </is>
       </c>
       <c r="C866" t="n">
-        <v>6632</v>
+        <v>6639</v>
       </c>
       <c r="D866" t="n">
-        <v>8941448</v>
+        <v>8950710</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -41982,10 +41982,10 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>6371</v>
+        <v>6378</v>
       </c>
       <c r="D868" t="n">
-        <v>7716959</v>
+        <v>7724444</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -42078,10 +42078,10 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>9620</v>
+        <v>9655</v>
       </c>
       <c r="D870" t="n">
-        <v>12325344</v>
+        <v>12364768</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -42126,10 +42126,10 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>7628</v>
+        <v>7630</v>
       </c>
       <c r="D871" t="n">
-        <v>10003852</v>
+        <v>10006071</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -42174,10 +42174,10 @@
         </is>
       </c>
       <c r="C872" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D872" t="n">
-        <v>55892</v>
+        <v>58992</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -42222,10 +42222,10 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>9126</v>
+        <v>9133</v>
       </c>
       <c r="D873" t="n">
-        <v>12284120</v>
+        <v>12293339</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -42414,10 +42414,10 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>42675</v>
+        <v>42724</v>
       </c>
       <c r="D877" t="n">
-        <v>59964623</v>
+        <v>60036118</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -42462,10 +42462,10 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>39985</v>
+        <v>40023</v>
       </c>
       <c r="D878" t="n">
-        <v>56891192</v>
+        <v>56946537</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -42510,10 +42510,10 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>45547</v>
+        <v>45637</v>
       </c>
       <c r="D879" t="n">
-        <v>67139655</v>
+        <v>67273884</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -42558,10 +42558,10 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>22057</v>
+        <v>22104</v>
       </c>
       <c r="D880" t="n">
-        <v>30121380</v>
+        <v>30186014</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -42606,10 +42606,10 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>3062</v>
+        <v>3065</v>
       </c>
       <c r="D881" t="n">
-        <v>4406305</v>
+        <v>4410541</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -42654,10 +42654,10 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>7941</v>
+        <v>7954</v>
       </c>
       <c r="D882" t="n">
-        <v>11351411</v>
+        <v>11370911</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -42702,10 +42702,10 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>75170</v>
+        <v>75289</v>
       </c>
       <c r="D883" t="n">
-        <v>103643050</v>
+        <v>103797926</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -42750,10 +42750,10 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>17676</v>
+        <v>17706</v>
       </c>
       <c r="D884" t="n">
-        <v>24047976</v>
+        <v>24092906</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -42846,10 +42846,10 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>15129</v>
+        <v>15155</v>
       </c>
       <c r="D886" t="n">
-        <v>18395199</v>
+        <v>18429485</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -42894,10 +42894,10 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>19296</v>
+        <v>19304</v>
       </c>
       <c r="D887" t="n">
-        <v>26160577</v>
+        <v>26170108</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -42942,10 +42942,10 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>43959</v>
+        <v>44075</v>
       </c>
       <c r="D888" t="n">
-        <v>56746590</v>
+        <v>56903107</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -42990,10 +42990,10 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>20755</v>
+        <v>20763</v>
       </c>
       <c r="D889" t="n">
-        <v>28038327</v>
+        <v>28047527</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -43086,10 +43086,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>2137</v>
+        <v>2141</v>
       </c>
       <c r="D891" t="n">
-        <v>2816698</v>
+        <v>2820142</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -43230,10 +43230,10 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>8963</v>
+        <v>8968</v>
       </c>
       <c r="D894" t="n">
-        <v>12874098</v>
+        <v>12881598</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -43278,10 +43278,10 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>11711</v>
+        <v>11717</v>
       </c>
       <c r="D895" t="n">
-        <v>15794126</v>
+        <v>15801076</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -43326,10 +43326,10 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>18133</v>
+        <v>18156</v>
       </c>
       <c r="D896" t="n">
-        <v>25908727</v>
+        <v>25942675</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -43374,10 +43374,10 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>7386</v>
+        <v>7393</v>
       </c>
       <c r="D897" t="n">
-        <v>10654794</v>
+        <v>10664544</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -43518,10 +43518,10 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="D900" t="n">
-        <v>2385312</v>
+        <v>2391312</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -43566,10 +43566,10 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>6882</v>
+        <v>6886</v>
       </c>
       <c r="D901" t="n">
-        <v>9312875</v>
+        <v>9317718</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -43614,10 +43614,10 @@
         </is>
       </c>
       <c r="C902" t="n">
-        <v>3655</v>
+        <v>3659</v>
       </c>
       <c r="D902" t="n">
-        <v>4867106</v>
+        <v>4871408</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -43662,10 +43662,10 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>3639</v>
+        <v>3644</v>
       </c>
       <c r="D903" t="n">
-        <v>4466108</v>
+        <v>4471328</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -43758,10 +43758,10 @@
         </is>
       </c>
       <c r="C905" t="n">
-        <v>4892</v>
+        <v>4899</v>
       </c>
       <c r="D905" t="n">
-        <v>6132660</v>
+        <v>6140232</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -44094,10 +44094,10 @@
         </is>
       </c>
       <c r="C912" t="n">
-        <v>11575</v>
+        <v>11578</v>
       </c>
       <c r="D912" t="n">
-        <v>16838207</v>
+        <v>16842206</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -44142,10 +44142,10 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>19106</v>
+        <v>19121</v>
       </c>
       <c r="D913" t="n">
-        <v>25887866</v>
+        <v>25910366</v>
       </c>
       <c r="E913" t="inlineStr">
         <is>
@@ -44190,10 +44190,10 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>57055</v>
+        <v>57165</v>
       </c>
       <c r="D914" t="n">
-        <v>82170593</v>
+        <v>82328937</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -44238,10 +44238,10 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>10625</v>
+        <v>10648</v>
       </c>
       <c r="D915" t="n">
-        <v>15494016</v>
+        <v>15525856</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -44286,10 +44286,10 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>4014</v>
+        <v>4022</v>
       </c>
       <c r="D916" t="n">
-        <v>5476115</v>
+        <v>5485236</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -44430,10 +44430,10 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>11963</v>
+        <v>11987</v>
       </c>
       <c r="D919" t="n">
-        <v>16277608</v>
+        <v>16311600</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -44478,10 +44478,10 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>5036</v>
+        <v>5049</v>
       </c>
       <c r="D920" t="n">
-        <v>6870428</v>
+        <v>6888845</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -44526,10 +44526,10 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>4064</v>
+        <v>4072</v>
       </c>
       <c r="D921" t="n">
-        <v>5072551</v>
+        <v>5079929</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -44622,10 +44622,10 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>9280</v>
+        <v>9309</v>
       </c>
       <c r="D923" t="n">
-        <v>12033343</v>
+        <v>12066264</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -44670,10 +44670,10 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>5736</v>
+        <v>5742</v>
       </c>
       <c r="D924" t="n">
-        <v>7543889</v>
+        <v>7550909</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -44766,10 +44766,10 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="D926" t="n">
-        <v>2709574</v>
+        <v>2714074</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -44910,10 +44910,10 @@
         </is>
       </c>
       <c r="C929" t="n">
-        <v>7955</v>
+        <v>7958</v>
       </c>
       <c r="D929" t="n">
-        <v>11477952</v>
+        <v>11482452</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -44958,10 +44958,10 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>12462</v>
+        <v>12467</v>
       </c>
       <c r="D930" t="n">
-        <v>16982888</v>
+        <v>16987592</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -45006,10 +45006,10 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>33424</v>
+        <v>33464</v>
       </c>
       <c r="D931" t="n">
-        <v>47786097</v>
+        <v>47843441</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -45054,10 +45054,10 @@
         </is>
       </c>
       <c r="C932" t="n">
-        <v>8868</v>
+        <v>8885</v>
       </c>
       <c r="D932" t="n">
-        <v>12968591</v>
+        <v>12989719</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -45102,10 +45102,10 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>3732</v>
+        <v>3733</v>
       </c>
       <c r="D933" t="n">
-        <v>5042714</v>
+        <v>5044214</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -45246,10 +45246,10 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>13061</v>
+        <v>13087</v>
       </c>
       <c r="D936" t="n">
-        <v>17641931</v>
+        <v>17671434</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -45294,10 +45294,10 @@
         </is>
       </c>
       <c r="C937" t="n">
-        <v>4925</v>
+        <v>4930</v>
       </c>
       <c r="D937" t="n">
-        <v>6612280</v>
+        <v>6618185</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -45342,10 +45342,10 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>4390</v>
+        <v>4394</v>
       </c>
       <c r="D938" t="n">
-        <v>5260305</v>
+        <v>5262855</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -45438,10 +45438,10 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>8460</v>
+        <v>8482</v>
       </c>
       <c r="D940" t="n">
-        <v>10780157</v>
+        <v>10808080</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -45486,10 +45486,10 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>6591</v>
+        <v>6597</v>
       </c>
       <c r="D941" t="n">
-        <v>8505482</v>
+        <v>8512170</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -45582,10 +45582,10 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="D943" t="n">
-        <v>2209383</v>
+        <v>2210883</v>
       </c>
       <c r="E943" t="inlineStr">
         <is>
@@ -45774,10 +45774,10 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>10133</v>
+        <v>10135</v>
       </c>
       <c r="D947" t="n">
-        <v>13419332</v>
+        <v>13422332</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -45822,10 +45822,10 @@
         </is>
       </c>
       <c r="C948" t="n">
-        <v>31027</v>
+        <v>31064</v>
       </c>
       <c r="D948" t="n">
-        <v>44632404</v>
+        <v>44685144</v>
       </c>
       <c r="E948" t="inlineStr">
         <is>
@@ -45870,10 +45870,10 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>5662</v>
+        <v>5672</v>
       </c>
       <c r="D949" t="n">
-        <v>8211772</v>
+        <v>8226772</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -46062,10 +46062,10 @@
         </is>
       </c>
       <c r="C953" t="n">
-        <v>6843</v>
+        <v>6853</v>
       </c>
       <c r="D953" t="n">
-        <v>9320982</v>
+        <v>9332294</v>
       </c>
       <c r="E953" t="inlineStr">
         <is>
@@ -46206,10 +46206,10 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>3231</v>
+        <v>3234</v>
       </c>
       <c r="D956" t="n">
-        <v>3982355</v>
+        <v>3984776</v>
       </c>
       <c r="E956" t="inlineStr">
         <is>
@@ -46302,10 +46302,10 @@
         </is>
       </c>
       <c r="C958" t="n">
-        <v>3832</v>
+        <v>3843</v>
       </c>
       <c r="D958" t="n">
-        <v>4911974</v>
+        <v>4924984</v>
       </c>
       <c r="E958" t="inlineStr">
         <is>
@@ -46446,10 +46446,10 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="D961" t="n">
-        <v>2563970</v>
+        <v>2565470</v>
       </c>
       <c r="E961" t="inlineStr">
         <is>
@@ -46638,10 +46638,10 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>9347</v>
+        <v>9353</v>
       </c>
       <c r="D965" t="n">
-        <v>12698009</v>
+        <v>12707009</v>
       </c>
       <c r="E965" t="inlineStr">
         <is>
@@ -46686,10 +46686,10 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>16351</v>
+        <v>16360</v>
       </c>
       <c r="D966" t="n">
-        <v>23382869</v>
+        <v>23394989</v>
       </c>
       <c r="E966" t="inlineStr">
         <is>
@@ -46734,10 +46734,10 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>6639</v>
+        <v>6651</v>
       </c>
       <c r="D967" t="n">
-        <v>9676545</v>
+        <v>9694377</v>
       </c>
       <c r="E967" t="inlineStr">
         <is>
@@ -46782,10 +46782,10 @@
         </is>
       </c>
       <c r="C968" t="n">
-        <v>2896</v>
+        <v>2901</v>
       </c>
       <c r="D968" t="n">
-        <v>3961053</v>
+        <v>3966153</v>
       </c>
       <c r="E968" t="inlineStr">
         <is>
@@ -46878,10 +46878,10 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="D970" t="n">
-        <v>3327809</v>
+        <v>3329309</v>
       </c>
       <c r="E970" t="inlineStr">
         <is>
@@ -46926,10 +46926,10 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>10367</v>
+        <v>10373</v>
       </c>
       <c r="D971" t="n">
-        <v>14099817</v>
+        <v>14105789</v>
       </c>
       <c r="E971" t="inlineStr">
         <is>
@@ -46974,10 +46974,10 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>3767</v>
+        <v>3772</v>
       </c>
       <c r="D972" t="n">
-        <v>4950540</v>
+        <v>4957905</v>
       </c>
       <c r="E972" t="inlineStr">
         <is>
@@ -47022,10 +47022,10 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>4809</v>
+        <v>4814</v>
       </c>
       <c r="D973" t="n">
-        <v>5777411</v>
+        <v>5780475</v>
       </c>
       <c r="E973" t="inlineStr">
         <is>
@@ -47118,10 +47118,10 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>5220</v>
+        <v>5226</v>
       </c>
       <c r="D975" t="n">
-        <v>6567387</v>
+        <v>6575187</v>
       </c>
       <c r="E975" t="inlineStr">
         <is>
@@ -47166,10 +47166,10 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>6550</v>
+        <v>6552</v>
       </c>
       <c r="D976" t="n">
-        <v>8262818</v>
+        <v>8264518</v>
       </c>
       <c r="E976" t="inlineStr">
         <is>
@@ -47214,10 +47214,10 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>5303</v>
+        <v>5309</v>
       </c>
       <c r="D977" t="n">
-        <v>7042091</v>
+        <v>7050931</v>
       </c>
       <c r="E977" t="inlineStr">
         <is>
@@ -47310,10 +47310,10 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>4279</v>
+        <v>4283</v>
       </c>
       <c r="D979" t="n">
-        <v>5708692</v>
+        <v>5712818</v>
       </c>
       <c r="E979" t="inlineStr">
         <is>
@@ -47502,10 +47502,10 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>14114</v>
+        <v>14115</v>
       </c>
       <c r="D983" t="n">
-        <v>19173235</v>
+        <v>19174735</v>
       </c>
       <c r="E983" t="inlineStr">
         <is>
@@ -47550,10 +47550,10 @@
         </is>
       </c>
       <c r="C984" t="n">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="D984" t="n">
-        <v>2921404</v>
+        <v>2924404</v>
       </c>
       <c r="E984" t="inlineStr">
         <is>
@@ -47598,10 +47598,10 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>9198</v>
+        <v>9209</v>
       </c>
       <c r="D985" t="n">
-        <v>12971676</v>
+        <v>12988631</v>
       </c>
       <c r="E985" t="inlineStr">
         <is>
@@ -47646,10 +47646,10 @@
         </is>
       </c>
       <c r="C986" t="n">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D986" t="n">
-        <v>1493093</v>
+        <v>1496093</v>
       </c>
       <c r="E986" t="inlineStr">
         <is>
@@ -47790,10 +47790,10 @@
         </is>
       </c>
       <c r="C989" t="n">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="D989" t="n">
-        <v>6384126</v>
+        <v>6385626</v>
       </c>
       <c r="E989" t="inlineStr">
         <is>
@@ -47838,10 +47838,10 @@
         </is>
       </c>
       <c r="C990" t="n">
-        <v>2960</v>
+        <v>2964</v>
       </c>
       <c r="D990" t="n">
-        <v>4084864</v>
+        <v>4090838</v>
       </c>
       <c r="E990" t="inlineStr">
         <is>
@@ -47886,10 +47886,10 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>3896</v>
+        <v>3899</v>
       </c>
       <c r="D991" t="n">
-        <v>5027106</v>
+        <v>5029942</v>
       </c>
       <c r="E991" t="inlineStr">
         <is>
@@ -47934,10 +47934,10 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>5260</v>
+        <v>5262</v>
       </c>
       <c r="D992" t="n">
-        <v>7426892</v>
+        <v>7429512</v>
       </c>
       <c r="E992" t="inlineStr">
         <is>
@@ -47982,10 +47982,10 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>3371</v>
+        <v>3374</v>
       </c>
       <c r="D993" t="n">
-        <v>4443614</v>
+        <v>4448114</v>
       </c>
       <c r="E993" t="inlineStr">
         <is>
@@ -48078,10 +48078,10 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>2074</v>
+        <v>2081</v>
       </c>
       <c r="D995" t="n">
-        <v>2642063</v>
+        <v>2652513</v>
       </c>
       <c r="E995" t="inlineStr">
         <is>
@@ -48126,10 +48126,10 @@
         </is>
       </c>
       <c r="C996" t="n">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="D996" t="n">
-        <v>2944464</v>
+        <v>2945664</v>
       </c>
       <c r="E996" t="inlineStr">
         <is>
@@ -48318,10 +48318,10 @@
         </is>
       </c>
       <c r="C1000" t="n">
-        <v>5804</v>
+        <v>5811</v>
       </c>
       <c r="D1000" t="n">
-        <v>7982226</v>
+        <v>7991326</v>
       </c>
       <c r="E1000" t="inlineStr">
         <is>
@@ -48366,10 +48366,10 @@
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>2271</v>
+        <v>2275</v>
       </c>
       <c r="D1001" t="n">
-        <v>3187841</v>
+        <v>3194006</v>
       </c>
       <c r="E1001" t="inlineStr">
         <is>
@@ -48414,10 +48414,10 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>4216</v>
+        <v>4224</v>
       </c>
       <c r="D1002" t="n">
-        <v>6024456</v>
+        <v>6033588</v>
       </c>
       <c r="E1002" t="inlineStr">
         <is>
@@ -48462,10 +48462,10 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="D1003" t="n">
-        <v>849353</v>
+        <v>860353</v>
       </c>
       <c r="E1003" t="inlineStr">
         <is>
@@ -48654,10 +48654,10 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>2930</v>
+        <v>2935</v>
       </c>
       <c r="D1007" t="n">
-        <v>4017454</v>
+        <v>4025452</v>
       </c>
       <c r="E1007" t="inlineStr">
         <is>
@@ -48702,10 +48702,10 @@
         </is>
       </c>
       <c r="C1008" t="n">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D1008" t="n">
-        <v>1923769</v>
+        <v>1923989</v>
       </c>
       <c r="E1008" t="inlineStr">
         <is>
@@ -48798,10 +48798,10 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="D1010" t="n">
-        <v>1852227</v>
+        <v>1854107</v>
       </c>
       <c r="E1010" t="inlineStr">
         <is>
@@ -48846,10 +48846,10 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>2917</v>
+        <v>2919</v>
       </c>
       <c r="D1011" t="n">
-        <v>3805813</v>
+        <v>3808813</v>
       </c>
       <c r="E1011" t="inlineStr">
         <is>
@@ -48934,10 +48934,10 @@
         </is>
       </c>
       <c r="C1013" t="n">
-        <v>5598</v>
+        <v>5601</v>
       </c>
       <c r="D1013" t="n">
-        <v>11494271</v>
+        <v>11503271</v>
       </c>
       <c r="E1013" t="inlineStr">
         <is>
@@ -48982,10 +48982,10 @@
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D1014" t="n">
-        <v>2037051</v>
+        <v>2046051</v>
       </c>
       <c r="E1014" t="inlineStr">
         <is>
@@ -49078,10 +49078,10 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>3330</v>
+        <v>3336</v>
       </c>
       <c r="D1016" t="n">
-        <v>6849913</v>
+        <v>6867913</v>
       </c>
       <c r="E1016" t="inlineStr">
         <is>
@@ -49126,10 +49126,10 @@
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>15113</v>
+        <v>15129</v>
       </c>
       <c r="D1017" t="n">
-        <v>30165156</v>
+        <v>30205356</v>
       </c>
       <c r="E1017" t="inlineStr">
         <is>
@@ -49174,10 +49174,10 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="D1018" t="n">
-        <v>5721174</v>
+        <v>5724174</v>
       </c>
       <c r="E1018" t="inlineStr">
         <is>
@@ -49462,10 +49462,10 @@
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D1024" t="n">
-        <v>1163857</v>
+        <v>1178857</v>
       </c>
       <c r="E1024" t="inlineStr">
         <is>
@@ -49558,10 +49558,10 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D1026" t="n">
-        <v>489336</v>
+        <v>492336</v>
       </c>
       <c r="E1026" t="inlineStr">
         <is>
@@ -49750,10 +49750,10 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D1030" t="n">
-        <v>1774285</v>
+        <v>1775785</v>
       </c>
       <c r="E1030" t="inlineStr">
         <is>
@@ -49846,10 +49846,10 @@
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>3942</v>
+        <v>3944</v>
       </c>
       <c r="D1032" t="n">
-        <v>5661091</v>
+        <v>5664091</v>
       </c>
       <c r="E1032" t="inlineStr">
         <is>
@@ -49894,10 +49894,10 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>7071</v>
+        <v>7074</v>
       </c>
       <c r="D1033" t="n">
-        <v>9315551</v>
+        <v>9319271</v>
       </c>
       <c r="E1033" t="inlineStr">
         <is>
@@ -49990,10 +49990,10 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>6036</v>
+        <v>6039</v>
       </c>
       <c r="D1035" t="n">
-        <v>8643530</v>
+        <v>8648030</v>
       </c>
       <c r="E1035" t="inlineStr">
         <is>
@@ -50182,10 +50182,10 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>3297</v>
+        <v>3300</v>
       </c>
       <c r="D1039" t="n">
-        <v>4419023</v>
+        <v>4422061</v>
       </c>
       <c r="E1039" t="inlineStr">
         <is>
@@ -50278,10 +50278,10 @@
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="D1041" t="n">
-        <v>2146094</v>
+        <v>2147512</v>
       </c>
       <c r="E1041" t="inlineStr">
         <is>
@@ -50374,10 +50374,10 @@
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>2920</v>
+        <v>2922</v>
       </c>
       <c r="D1043" t="n">
-        <v>3537236</v>
+        <v>3538978</v>
       </c>
       <c r="E1043" t="inlineStr">
         <is>
@@ -50422,10 +50422,10 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>4353</v>
+        <v>4355</v>
       </c>
       <c r="D1044" t="n">
-        <v>5288618</v>
+        <v>5290873</v>
       </c>
       <c r="E1044" t="inlineStr">
         <is>
@@ -50470,10 +50470,10 @@
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D1045" t="n">
-        <v>554016</v>
+        <v>555516</v>
       </c>
       <c r="E1045" t="inlineStr">
         <is>
@@ -50518,10 +50518,10 @@
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>1124</v>
+        <v>1129</v>
       </c>
       <c r="D1046" t="n">
-        <v>1413498</v>
+        <v>1419059</v>
       </c>
       <c r="E1046" t="inlineStr">
         <is>
@@ -50566,10 +50566,10 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1047" t="n">
-        <v>4303</v>
+        <v>4818</v>
       </c>
       <c r="E1047" t="inlineStr">
         <is>
@@ -50710,10 +50710,10 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>4695</v>
+        <v>4699</v>
       </c>
       <c r="D1050" t="n">
-        <v>6066423</v>
+        <v>6071921</v>
       </c>
       <c r="E1050" t="inlineStr">
         <is>
@@ -50806,10 +50806,10 @@
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>3286</v>
+        <v>3288</v>
       </c>
       <c r="D1052" t="n">
-        <v>4697953</v>
+        <v>4701253</v>
       </c>
       <c r="E1052" t="inlineStr">
         <is>
@@ -50854,10 +50854,10 @@
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D1053" t="n">
-        <v>456686</v>
+        <v>458186</v>
       </c>
       <c r="E1053" t="inlineStr">
         <is>
@@ -51142,10 +51142,10 @@
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D1059" t="n">
-        <v>1645433</v>
+        <v>1646933</v>
       </c>
       <c r="E1059" t="inlineStr">
         <is>
@@ -51334,10 +51334,10 @@
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D1063" t="n">
-        <v>1256465</v>
+        <v>1259465</v>
       </c>
       <c r="E1063" t="inlineStr">
         <is>
@@ -51670,10 +51670,10 @@
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>4121</v>
+        <v>4126</v>
       </c>
       <c r="D1070" t="n">
-        <v>5809889</v>
+        <v>5815311</v>
       </c>
       <c r="E1070" t="inlineStr">
         <is>
@@ -51862,10 +51862,10 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D1074" t="n">
-        <v>1976098</v>
+        <v>1977598</v>
       </c>
       <c r="E1074" t="inlineStr">
         <is>
@@ -51958,10 +51958,10 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D1076" t="n">
-        <v>1060216</v>
+        <v>1063216</v>
       </c>
       <c r="E1076" t="inlineStr">
         <is>
@@ -52054,10 +52054,10 @@
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="D1078" t="n">
-        <v>2049022</v>
+        <v>2051715</v>
       </c>
       <c r="E1078" t="inlineStr">
         <is>
@@ -52294,10 +52294,10 @@
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D1083" t="n">
-        <v>2186947</v>
+        <v>2188447</v>
       </c>
       <c r="E1083" t="inlineStr">
         <is>
@@ -52342,10 +52342,10 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="D1084" t="n">
-        <v>2858254</v>
+        <v>2859754</v>
       </c>
       <c r="E1084" t="inlineStr">
         <is>
@@ -52630,10 +52630,10 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D1090" t="n">
-        <v>913861</v>
+        <v>915306</v>
       </c>
       <c r="E1090" t="inlineStr">
         <is>
@@ -52822,10 +52822,10 @@
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D1094" t="n">
-        <v>1040638</v>
+        <v>1042138</v>
       </c>
       <c r="E1094" t="inlineStr">
         <is>
@@ -52966,10 +52966,10 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="D1097" t="n">
-        <v>2186710</v>
+        <v>2191210</v>
       </c>
       <c r="E1097" t="inlineStr">
         <is>
@@ -53206,10 +53206,10 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>2640</v>
+        <v>2642</v>
       </c>
       <c r="D1102" t="n">
-        <v>3617879</v>
+        <v>3620879</v>
       </c>
       <c r="E1102" t="inlineStr">
         <is>
@@ -53254,10 +53254,10 @@
         </is>
       </c>
       <c r="C1103" t="n">
-        <v>7461</v>
+        <v>7471</v>
       </c>
       <c r="D1103" t="n">
-        <v>10701756</v>
+        <v>10716756</v>
       </c>
       <c r="E1103" t="inlineStr">
         <is>
@@ -53302,10 +53302,10 @@
         </is>
       </c>
       <c r="C1104" t="n">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D1104" t="n">
-        <v>1022664</v>
+        <v>1024164</v>
       </c>
       <c r="E1104" t="inlineStr">
         <is>
@@ -53350,10 +53350,10 @@
         </is>
       </c>
       <c r="C1105" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D1105" t="n">
-        <v>582159</v>
+        <v>583659</v>
       </c>
       <c r="E1105" t="inlineStr">
         <is>
@@ -53542,10 +53542,10 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="D1109" t="n">
-        <v>2643977</v>
+        <v>2644856</v>
       </c>
       <c r="E1109" t="inlineStr">
         <is>
@@ -53638,10 +53638,10 @@
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>3206</v>
+        <v>3213</v>
       </c>
       <c r="D1111" t="n">
-        <v>3809328</v>
+        <v>3819551</v>
       </c>
       <c r="E1111" t="inlineStr">
         <is>
@@ -53974,10 +53974,10 @@
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="D1118" t="n">
-        <v>4188466</v>
+        <v>4189966</v>
       </c>
       <c r="E1118" t="inlineStr">
         <is>
@@ -54070,10 +54070,10 @@
         </is>
       </c>
       <c r="C1120" t="n">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="D1120" t="n">
-        <v>3480610</v>
+        <v>3482110</v>
       </c>
       <c r="E1120" t="inlineStr">
         <is>
@@ -54262,10 +54262,10 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D1124" t="n">
-        <v>1558239</v>
+        <v>1559025</v>
       </c>
       <c r="E1124" t="inlineStr">
         <is>
@@ -54310,10 +54310,10 @@
         </is>
       </c>
       <c r="C1125" t="n">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D1125" t="n">
-        <v>897433</v>
+        <v>898933</v>
       </c>
       <c r="E1125" t="inlineStr">
         <is>
@@ -54454,10 +54454,10 @@
         </is>
       </c>
       <c r="C1128" t="n">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="D1128" t="n">
-        <v>1524983</v>
+        <v>1526883</v>
       </c>
       <c r="E1128" t="inlineStr">
         <is>
@@ -54886,10 +54886,10 @@
         </is>
       </c>
       <c r="C1137" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D1137" t="n">
-        <v>1389065</v>
+        <v>1390565</v>
       </c>
       <c r="E1137" t="inlineStr">
         <is>
@@ -54934,10 +54934,10 @@
         </is>
       </c>
       <c r="C1138" t="n">
-        <v>6281</v>
+        <v>6282</v>
       </c>
       <c r="D1138" t="n">
-        <v>8910439</v>
+        <v>8911939</v>
       </c>
       <c r="E1138" t="inlineStr">
         <is>
@@ -55126,10 +55126,10 @@
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="D1142" t="n">
-        <v>4766908</v>
+        <v>4768408</v>
       </c>
       <c r="E1142" t="inlineStr">
         <is>
@@ -55222,10 +55222,10 @@
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="D1144" t="n">
-        <v>2722066</v>
+        <v>2725066</v>
       </c>
       <c r="E1144" t="inlineStr">
         <is>
@@ -55318,10 +55318,10 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>3049</v>
+        <v>3052</v>
       </c>
       <c r="D1146" t="n">
-        <v>3646566</v>
+        <v>3649609</v>
       </c>
       <c r="E1146" t="inlineStr">
         <is>
@@ -55366,10 +55366,10 @@
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>4766</v>
+        <v>4768</v>
       </c>
       <c r="D1147" t="n">
-        <v>5573444</v>
+        <v>5575426</v>
       </c>
       <c r="E1147" t="inlineStr">
         <is>
@@ -55414,10 +55414,10 @@
         </is>
       </c>
       <c r="C1148" t="n">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D1148" t="n">
-        <v>1324135</v>
+        <v>1325635</v>
       </c>
       <c r="E1148" t="inlineStr">
         <is>
@@ -55894,10 +55894,10 @@
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="D1158" t="n">
-        <v>1157882</v>
+        <v>1167802</v>
       </c>
       <c r="E1158" t="inlineStr">
         <is>
@@ -55942,10 +55942,10 @@
         </is>
       </c>
       <c r="C1159" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D1159" t="n">
-        <v>619138</v>
+        <v>620638</v>
       </c>
       <c r="E1159" t="inlineStr">
         <is>
@@ -56086,10 +56086,10 @@
         </is>
       </c>
       <c r="C1162" t="n">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D1162" t="n">
-        <v>934013</v>
+        <v>934749</v>
       </c>
       <c r="E1162" t="inlineStr">
         <is>
@@ -56470,10 +56470,10 @@
         </is>
       </c>
       <c r="C1170" t="n">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D1170" t="n">
-        <v>1430592</v>
+        <v>1433592</v>
       </c>
       <c r="E1170" t="inlineStr">
         <is>
@@ -56902,10 +56902,10 @@
         </is>
       </c>
       <c r="C1179" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D1179" t="n">
-        <v>730578</v>
+        <v>732068</v>
       </c>
       <c r="E1179" t="inlineStr">
         <is>
@@ -56998,10 +56998,10 @@
         </is>
       </c>
       <c r="C1181" t="n">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D1181" t="n">
-        <v>758354</v>
+        <v>766065</v>
       </c>
       <c r="E1181" t="inlineStr">
         <is>
@@ -57478,10 +57478,10 @@
         </is>
       </c>
       <c r="C1191" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D1191" t="n">
-        <v>710753</v>
+        <v>712253</v>
       </c>
       <c r="E1191" t="inlineStr">
         <is>
@@ -57622,10 +57622,10 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D1194" t="n">
-        <v>1288378</v>
+        <v>1288878</v>
       </c>
       <c r="E1194" t="inlineStr">
         <is>
@@ -57718,10 +57718,10 @@
         </is>
       </c>
       <c r="C1196" t="n">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D1196" t="n">
-        <v>1728975</v>
+        <v>1730475</v>
       </c>
       <c r="E1196" t="inlineStr">
         <is>
@@ -57814,10 +57814,10 @@
         </is>
       </c>
       <c r="C1198" t="n">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="D1198" t="n">
-        <v>1924298</v>
+        <v>1925498</v>
       </c>
       <c r="E1198" t="inlineStr">
         <is>
@@ -57910,10 +57910,10 @@
         </is>
       </c>
       <c r="C1200" t="n">
-        <v>3682</v>
+        <v>3684</v>
       </c>
       <c r="D1200" t="n">
-        <v>5120138</v>
+        <v>5122488</v>
       </c>
       <c r="E1200" t="inlineStr">
         <is>
@@ -57958,10 +57958,10 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>5178</v>
+        <v>5179</v>
       </c>
       <c r="D1201" t="n">
-        <v>6620268</v>
+        <v>6621768</v>
       </c>
       <c r="E1201" t="inlineStr">
         <is>
@@ -58054,10 +58054,10 @@
         </is>
       </c>
       <c r="C1203" t="n">
-        <v>6055</v>
+        <v>6058</v>
       </c>
       <c r="D1203" t="n">
-        <v>8385100</v>
+        <v>8389305</v>
       </c>
       <c r="E1203" t="inlineStr">
         <is>
@@ -58102,10 +58102,10 @@
         </is>
       </c>
       <c r="C1204" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D1204" t="n">
-        <v>315392</v>
+        <v>316522</v>
       </c>
       <c r="E1204" t="inlineStr">
         <is>
@@ -58294,10 +58294,10 @@
         </is>
       </c>
       <c r="C1208" t="n">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D1208" t="n">
-        <v>1847312</v>
+        <v>1848812</v>
       </c>
       <c r="E1208" t="inlineStr">
         <is>
@@ -58438,10 +58438,10 @@
         </is>
       </c>
       <c r="C1211" t="n">
-        <v>1803</v>
+        <v>1810</v>
       </c>
       <c r="D1211" t="n">
-        <v>2097372</v>
+        <v>2104341</v>
       </c>
       <c r="E1211" t="inlineStr">
         <is>
@@ -58486,10 +58486,10 @@
         </is>
       </c>
       <c r="C1212" t="n">
-        <v>3094</v>
+        <v>3096</v>
       </c>
       <c r="D1212" t="n">
-        <v>3606134</v>
+        <v>3609014</v>
       </c>
       <c r="E1212" t="inlineStr">
         <is>
@@ -58534,10 +58534,10 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="D1213" t="n">
-        <v>5711233</v>
+        <v>5712733</v>
       </c>
       <c r="E1213" t="inlineStr">
         <is>
@@ -58582,10 +58582,10 @@
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>4832</v>
+        <v>4843</v>
       </c>
       <c r="D1214" t="n">
-        <v>6044345</v>
+        <v>6057849</v>
       </c>
       <c r="E1214" t="inlineStr">
         <is>
@@ -58774,10 +58774,10 @@
         </is>
       </c>
       <c r="C1218" t="n">
-        <v>21201</v>
+        <v>21213</v>
       </c>
       <c r="D1218" t="n">
-        <v>28030858</v>
+        <v>28044487</v>
       </c>
       <c r="E1218" t="inlineStr">
         <is>
@@ -58822,10 +58822,10 @@
         </is>
       </c>
       <c r="C1219" t="n">
-        <v>8445</v>
+        <v>8450</v>
       </c>
       <c r="D1219" t="n">
-        <v>11677655</v>
+        <v>11683827</v>
       </c>
       <c r="E1219" t="inlineStr">
         <is>
@@ -58870,10 +58870,10 @@
         </is>
       </c>
       <c r="C1220" t="n">
-        <v>12799</v>
+        <v>12810</v>
       </c>
       <c r="D1220" t="n">
-        <v>18336624</v>
+        <v>18350504</v>
       </c>
       <c r="E1220" t="inlineStr">
         <is>
@@ -58918,10 +58918,10 @@
         </is>
       </c>
       <c r="C1221" t="n">
-        <v>2634</v>
+        <v>2639</v>
       </c>
       <c r="D1221" t="n">
-        <v>3438717</v>
+        <v>3445103</v>
       </c>
       <c r="E1221" t="inlineStr">
         <is>
@@ -59014,10 +59014,10 @@
         </is>
       </c>
       <c r="C1223" t="n">
-        <v>3085</v>
+        <v>3088</v>
       </c>
       <c r="D1223" t="n">
-        <v>4225063</v>
+        <v>4229563</v>
       </c>
       <c r="E1223" t="inlineStr">
         <is>
@@ -59062,10 +59062,10 @@
         </is>
       </c>
       <c r="C1224" t="n">
-        <v>14459</v>
+        <v>14481</v>
       </c>
       <c r="D1224" t="n">
-        <v>19383716</v>
+        <v>19411323</v>
       </c>
       <c r="E1224" t="inlineStr">
         <is>
@@ -59110,10 +59110,10 @@
         </is>
       </c>
       <c r="C1225" t="n">
-        <v>6534</v>
+        <v>6538</v>
       </c>
       <c r="D1225" t="n">
-        <v>8482422</v>
+        <v>8486974</v>
       </c>
       <c r="E1225" t="inlineStr">
         <is>
@@ -59206,10 +59206,10 @@
         </is>
       </c>
       <c r="C1227" t="n">
-        <v>6561</v>
+        <v>6567</v>
       </c>
       <c r="D1227" t="n">
-        <v>7628891</v>
+        <v>7634452</v>
       </c>
       <c r="E1227" t="inlineStr">
         <is>
@@ -59254,10 +59254,10 @@
         </is>
       </c>
       <c r="C1228" t="n">
-        <v>12535</v>
+        <v>12538</v>
       </c>
       <c r="D1228" t="n">
-        <v>16665264</v>
+        <v>16666818</v>
       </c>
       <c r="E1228" t="inlineStr">
         <is>
@@ -59302,10 +59302,10 @@
         </is>
       </c>
       <c r="C1229" t="n">
-        <v>8154</v>
+        <v>8173</v>
       </c>
       <c r="D1229" t="n">
-        <v>9906340</v>
+        <v>9927784</v>
       </c>
       <c r="E1229" t="inlineStr">
         <is>
@@ -59350,10 +59350,10 @@
         </is>
       </c>
       <c r="C1230" t="n">
-        <v>12625</v>
+        <v>12635</v>
       </c>
       <c r="D1230" t="n">
-        <v>15022755</v>
+        <v>15034265</v>
       </c>
       <c r="E1230" t="inlineStr">
         <is>
@@ -59446,10 +59446,10 @@
         </is>
       </c>
       <c r="C1232" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D1232" t="n">
-        <v>1224452</v>
+        <v>1225022</v>
       </c>
       <c r="E1232" t="inlineStr">
         <is>
@@ -59590,10 +59590,10 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="D1235" t="n">
-        <v>4118615</v>
+        <v>4119535</v>
       </c>
       <c r="E1235" t="inlineStr">
         <is>
@@ -59638,10 +59638,10 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D1236" t="n">
-        <v>886966</v>
+        <v>888466</v>
       </c>
       <c r="E1236" t="inlineStr">
         <is>
@@ -59734,10 +59734,10 @@
         </is>
       </c>
       <c r="C1238" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D1238" t="n">
-        <v>337099</v>
+        <v>338599</v>
       </c>
       <c r="E1238" t="inlineStr">
         <is>
@@ -59782,10 +59782,10 @@
         </is>
       </c>
       <c r="C1239" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D1239" t="n">
-        <v>168243</v>
+        <v>169743</v>
       </c>
       <c r="E1239" t="inlineStr">
         <is>
@@ -59878,10 +59878,10 @@
         </is>
       </c>
       <c r="C1241" t="n">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D1241" t="n">
-        <v>1758560</v>
+        <v>1761560</v>
       </c>
       <c r="E1241" t="inlineStr">
         <is>
@@ -60118,10 +60118,10 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="D1246" t="n">
-        <v>1319354</v>
+        <v>1323973</v>
       </c>
       <c r="E1246" t="inlineStr">
         <is>
@@ -60166,10 +60166,10 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="D1247" t="n">
-        <v>2829491</v>
+        <v>2829581</v>
       </c>
       <c r="E1247" t="inlineStr">
         <is>
@@ -60454,10 +60454,10 @@
         </is>
       </c>
       <c r="C1253" t="n">
-        <v>5116</v>
+        <v>5117</v>
       </c>
       <c r="D1253" t="n">
-        <v>6681297</v>
+        <v>6682220</v>
       </c>
       <c r="E1253" t="inlineStr">
         <is>
@@ -60550,10 +60550,10 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>3989</v>
+        <v>3990</v>
       </c>
       <c r="D1255" t="n">
-        <v>5648864</v>
+        <v>5650364</v>
       </c>
       <c r="E1255" t="inlineStr">
         <is>
@@ -60598,10 +60598,10 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D1256" t="n">
-        <v>601051</v>
+        <v>601769</v>
       </c>
       <c r="E1256" t="inlineStr">
         <is>
@@ -60694,10 +60694,10 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="D1258" t="n">
-        <v>1291726</v>
+        <v>1295951</v>
       </c>
       <c r="E1258" t="inlineStr">
         <is>
@@ -60742,10 +60742,10 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="D1259" t="n">
-        <v>3318252</v>
+        <v>3319792</v>
       </c>
       <c r="E1259" t="inlineStr">
         <is>
@@ -60886,10 +60886,10 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>2852</v>
+        <v>2856</v>
       </c>
       <c r="D1262" t="n">
-        <v>3737469</v>
+        <v>3743469</v>
       </c>
       <c r="E1262" t="inlineStr">
         <is>
@@ -60934,10 +60934,10 @@
         </is>
       </c>
       <c r="C1263" t="n">
-        <v>1901</v>
+        <v>1904</v>
       </c>
       <c r="D1263" t="n">
-        <v>2305565</v>
+        <v>2309595</v>
       </c>
       <c r="E1263" t="inlineStr">
         <is>
@@ -60982,10 +60982,10 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>3169</v>
+        <v>3172</v>
       </c>
       <c r="D1264" t="n">
-        <v>3706913</v>
+        <v>3711168</v>
       </c>
       <c r="E1264" t="inlineStr">
         <is>
@@ -61078,10 +61078,10 @@
         </is>
       </c>
       <c r="C1266" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D1266" t="n">
-        <v>1174494</v>
+        <v>1176023</v>
       </c>
       <c r="E1266" t="inlineStr">
         <is>
@@ -61270,10 +61270,10 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="D1270" t="n">
-        <v>4783181</v>
+        <v>4783881</v>
       </c>
       <c r="E1270" t="inlineStr">
         <is>
@@ -61366,10 +61366,10 @@
         </is>
       </c>
       <c r="C1272" t="n">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="D1272" t="n">
-        <v>3902687</v>
+        <v>3906663</v>
       </c>
       <c r="E1272" t="inlineStr">
         <is>
@@ -61414,10 +61414,10 @@
         </is>
       </c>
       <c r="C1273" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D1273" t="n">
-        <v>363354</v>
+        <v>366354</v>
       </c>
       <c r="E1273" t="inlineStr">
         <is>
@@ -61510,10 +61510,10 @@
         </is>
       </c>
       <c r="C1275" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D1275" t="n">
-        <v>506064</v>
+        <v>509064</v>
       </c>
       <c r="E1275" t="inlineStr">
         <is>
@@ -61558,10 +61558,10 @@
         </is>
       </c>
       <c r="C1276" t="n">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D1276" t="n">
-        <v>1609795</v>
+        <v>1610902</v>
       </c>
       <c r="E1276" t="inlineStr">
         <is>
@@ -61798,10 +61798,10 @@
         </is>
       </c>
       <c r="C1281" t="n">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="D1281" t="n">
-        <v>2719368</v>
+        <v>2720008</v>
       </c>
       <c r="E1281" t="inlineStr">
         <is>
@@ -61846,10 +61846,10 @@
         </is>
       </c>
       <c r="C1282" t="n">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D1282" t="n">
-        <v>1679215</v>
+        <v>1680715</v>
       </c>
       <c r="E1282" t="inlineStr">
         <is>
@@ -61942,10 +61942,10 @@
         </is>
       </c>
       <c r="C1284" t="n">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="D1284" t="n">
-        <v>2904478</v>
+        <v>2907478</v>
       </c>
       <c r="E1284" t="inlineStr">
         <is>
@@ -62134,10 +62134,10 @@
         </is>
       </c>
       <c r="C1288" t="n">
-        <v>7550</v>
+        <v>7554</v>
       </c>
       <c r="D1288" t="n">
-        <v>9923291</v>
+        <v>9929291</v>
       </c>
       <c r="E1288" t="inlineStr">
         <is>
@@ -62182,10 +62182,10 @@
         </is>
       </c>
       <c r="C1289" t="n">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D1289" t="n">
-        <v>1940623</v>
+        <v>1942123</v>
       </c>
       <c r="E1289" t="inlineStr">
         <is>
@@ -62230,10 +62230,10 @@
         </is>
       </c>
       <c r="C1290" t="n">
-        <v>6514</v>
+        <v>6519</v>
       </c>
       <c r="D1290" t="n">
-        <v>9285430</v>
+        <v>9292930</v>
       </c>
       <c r="E1290" t="inlineStr">
         <is>
@@ -62374,10 +62374,10 @@
         </is>
       </c>
       <c r="C1293" t="n">
-        <v>2109</v>
+        <v>2113</v>
       </c>
       <c r="D1293" t="n">
-        <v>2774580</v>
+        <v>2778781</v>
       </c>
       <c r="E1293" t="inlineStr">
         <is>
@@ -62422,10 +62422,10 @@
         </is>
       </c>
       <c r="C1294" t="n">
-        <v>5106</v>
+        <v>5109</v>
       </c>
       <c r="D1294" t="n">
-        <v>6784405</v>
+        <v>6787471</v>
       </c>
       <c r="E1294" t="inlineStr">
         <is>
@@ -62470,10 +62470,10 @@
         </is>
       </c>
       <c r="C1295" t="n">
-        <v>2261</v>
+        <v>2265</v>
       </c>
       <c r="D1295" t="n">
-        <v>2903963</v>
+        <v>2907413</v>
       </c>
       <c r="E1295" t="inlineStr">
         <is>
@@ -62566,10 +62566,10 @@
         </is>
       </c>
       <c r="C1297" t="n">
-        <v>3339</v>
+        <v>3342</v>
       </c>
       <c r="D1297" t="n">
-        <v>3930591</v>
+        <v>3935091</v>
       </c>
       <c r="E1297" t="inlineStr">
         <is>
@@ -62614,10 +62614,10 @@
         </is>
       </c>
       <c r="C1298" t="n">
-        <v>5763</v>
+        <v>5764</v>
       </c>
       <c r="D1298" t="n">
-        <v>7636466</v>
+        <v>7637636</v>
       </c>
       <c r="E1298" t="inlineStr">
         <is>
@@ -62662,10 +62662,10 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>3490</v>
+        <v>3493</v>
       </c>
       <c r="D1299" t="n">
-        <v>4313889</v>
+        <v>4316743</v>
       </c>
       <c r="E1299" t="inlineStr">
         <is>
@@ -62710,10 +62710,10 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>5039</v>
+        <v>5041</v>
       </c>
       <c r="D1300" t="n">
-        <v>6021004</v>
+        <v>6023568</v>
       </c>
       <c r="E1300" t="inlineStr">
         <is>
@@ -62806,10 +62806,10 @@
         </is>
       </c>
       <c r="C1302" t="n">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D1302" t="n">
-        <v>1118332</v>
+        <v>1119832</v>
       </c>
       <c r="E1302" t="inlineStr">
         <is>
@@ -62950,10 +62950,10 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>3779</v>
+        <v>3780</v>
       </c>
       <c r="D1305" t="n">
-        <v>4848039</v>
+        <v>4849539</v>
       </c>
       <c r="E1305" t="inlineStr">
         <is>
@@ -63046,10 +63046,10 @@
         </is>
       </c>
       <c r="C1307" t="n">
-        <v>2659</v>
+        <v>2662</v>
       </c>
       <c r="D1307" t="n">
-        <v>3675416</v>
+        <v>3679916</v>
       </c>
       <c r="E1307" t="inlineStr">
         <is>
@@ -63094,10 +63094,10 @@
         </is>
       </c>
       <c r="C1308" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D1308" t="n">
-        <v>366738</v>
+        <v>372738</v>
       </c>
       <c r="E1308" t="inlineStr">
         <is>
@@ -63238,10 +63238,10 @@
         </is>
       </c>
       <c r="C1311" t="n">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="D1311" t="n">
-        <v>2199241</v>
+        <v>2200741</v>
       </c>
       <c r="E1311" t="inlineStr">
         <is>
@@ -63286,10 +63286,10 @@
         </is>
       </c>
       <c r="C1312" t="n">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D1312" t="n">
-        <v>1235829</v>
+        <v>1238829</v>
       </c>
       <c r="E1312" t="inlineStr">
         <is>
@@ -63430,10 +63430,10 @@
         </is>
       </c>
       <c r="C1315" t="n">
-        <v>1384</v>
+        <v>1388</v>
       </c>
       <c r="D1315" t="n">
-        <v>1596359</v>
+        <v>1601979</v>
       </c>
       <c r="E1315" t="inlineStr">
         <is>
@@ -63478,10 +63478,10 @@
         </is>
       </c>
       <c r="C1316" t="n">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="D1316" t="n">
-        <v>2813153</v>
+        <v>2813651</v>
       </c>
       <c r="E1316" t="inlineStr">
         <is>
@@ -63766,10 +63766,10 @@
         </is>
       </c>
       <c r="C1322" t="n">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="D1322" t="n">
-        <v>2232736</v>
+        <v>2235332</v>
       </c>
       <c r="E1322" t="inlineStr">
         <is>
@@ -63862,10 +63862,10 @@
         </is>
       </c>
       <c r="C1324" t="n">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="D1324" t="n">
-        <v>2575807</v>
+        <v>2578807</v>
       </c>
       <c r="E1324" t="inlineStr">
         <is>
@@ -64054,10 +64054,10 @@
         </is>
       </c>
       <c r="C1328" t="n">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="D1328" t="n">
-        <v>898557</v>
+        <v>903237</v>
       </c>
       <c r="E1328" t="inlineStr">
         <is>
@@ -64246,10 +64246,10 @@
         </is>
       </c>
       <c r="C1332" t="n">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D1332" t="n">
-        <v>973270</v>
+        <v>975090</v>
       </c>
       <c r="E1332" t="inlineStr">
         <is>
@@ -64438,10 +64438,10 @@
         </is>
       </c>
       <c r="C1336" t="n">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D1336" t="n">
-        <v>1501633</v>
+        <v>1502118</v>
       </c>
       <c r="E1336" t="inlineStr">
         <is>
@@ -64630,10 +64630,10 @@
         </is>
       </c>
       <c r="C1340" t="n">
-        <v>5347</v>
+        <v>5349</v>
       </c>
       <c r="D1340" t="n">
-        <v>6878140</v>
+        <v>6880452</v>
       </c>
       <c r="E1340" t="inlineStr">
         <is>
@@ -64678,10 +64678,10 @@
         </is>
       </c>
       <c r="C1341" t="n">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D1341" t="n">
-        <v>719702</v>
+        <v>722702</v>
       </c>
       <c r="E1341" t="inlineStr">
         <is>
@@ -64726,10 +64726,10 @@
         </is>
       </c>
       <c r="C1342" t="n">
-        <v>5197</v>
+        <v>5202</v>
       </c>
       <c r="D1342" t="n">
-        <v>7300095</v>
+        <v>7307595</v>
       </c>
       <c r="E1342" t="inlineStr">
         <is>
@@ -64870,10 +64870,10 @@
         </is>
       </c>
       <c r="C1345" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D1345" t="n">
-        <v>1190326</v>
+        <v>1191826</v>
       </c>
       <c r="E1345" t="inlineStr">
         <is>
@@ -64918,10 +64918,10 @@
         </is>
       </c>
       <c r="C1346" t="n">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="D1346" t="n">
-        <v>2770860</v>
+        <v>2771310</v>
       </c>
       <c r="E1346" t="inlineStr">
         <is>
@@ -64966,10 +64966,10 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D1347" t="n">
-        <v>1524177</v>
+        <v>1524437</v>
       </c>
       <c r="E1347" t="inlineStr">
         <is>
@@ -65110,10 +65110,10 @@
         </is>
       </c>
       <c r="C1350" t="n">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="D1350" t="n">
-        <v>2426597</v>
+        <v>2427007</v>
       </c>
       <c r="E1350" t="inlineStr">
         <is>
@@ -65158,10 +65158,10 @@
         </is>
       </c>
       <c r="C1351" t="n">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="D1351" t="n">
-        <v>1857966</v>
+        <v>1858266</v>
       </c>
       <c r="E1351" t="inlineStr">
         <is>
@@ -65350,10 +65350,10 @@
         </is>
       </c>
       <c r="C1355" t="n">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D1355" t="n">
-        <v>1269309</v>
+        <v>1272309</v>
       </c>
       <c r="E1355" t="inlineStr">
         <is>
@@ -65638,10 +65638,10 @@
         </is>
       </c>
       <c r="C1361" t="n">
-        <v>3398</v>
+        <v>3404</v>
       </c>
       <c r="D1361" t="n">
-        <v>4716086</v>
+        <v>4725063</v>
       </c>
       <c r="E1361" t="inlineStr">
         <is>
@@ -65686,10 +65686,10 @@
         </is>
       </c>
       <c r="C1362" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D1362" t="n">
-        <v>257920</v>
+        <v>260920</v>
       </c>
       <c r="E1362" t="inlineStr">
         <is>
@@ -65830,10 +65830,10 @@
         </is>
       </c>
       <c r="C1365" t="n">
-        <v>1277</v>
+        <v>1283</v>
       </c>
       <c r="D1365" t="n">
-        <v>1747850</v>
+        <v>1756695</v>
       </c>
       <c r="E1365" t="inlineStr">
         <is>
@@ -65926,10 +65926,10 @@
         </is>
       </c>
       <c r="C1367" t="n">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D1367" t="n">
-        <v>1135274</v>
+        <v>1138239</v>
       </c>
       <c r="E1367" t="inlineStr">
         <is>
@@ -66022,10 +66022,10 @@
         </is>
       </c>
       <c r="C1369" t="n">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="D1369" t="n">
-        <v>1499352</v>
+        <v>1503157</v>
       </c>
       <c r="E1369" t="inlineStr">
         <is>
@@ -66214,10 +66214,10 @@
         </is>
       </c>
       <c r="C1373" t="n">
-        <v>2929</v>
+        <v>2935</v>
       </c>
       <c r="D1373" t="n">
-        <v>3642023</v>
+        <v>3646312</v>
       </c>
       <c r="E1373" t="inlineStr">
         <is>
@@ -66406,10 +66406,10 @@
         </is>
       </c>
       <c r="C1377" t="n">
-        <v>10940</v>
+        <v>10943</v>
       </c>
       <c r="D1377" t="n">
-        <v>14344141</v>
+        <v>14347616</v>
       </c>
       <c r="E1377" t="inlineStr">
         <is>
@@ -66454,10 +66454,10 @@
         </is>
       </c>
       <c r="C1378" t="n">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D1378" t="n">
-        <v>1870045</v>
+        <v>1871545</v>
       </c>
       <c r="E1378" t="inlineStr">
         <is>
@@ -66502,10 +66502,10 @@
         </is>
       </c>
       <c r="C1379" t="n">
-        <v>7891</v>
+        <v>7893</v>
       </c>
       <c r="D1379" t="n">
-        <v>11228663</v>
+        <v>11230401</v>
       </c>
       <c r="E1379" t="inlineStr">
         <is>
@@ -66550,10 +66550,10 @@
         </is>
       </c>
       <c r="C1380" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D1380" t="n">
-        <v>1088706</v>
+        <v>1090206</v>
       </c>
       <c r="E1380" t="inlineStr">
         <is>
@@ -66646,10 +66646,10 @@
         </is>
       </c>
       <c r="C1382" t="n">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D1382" t="n">
-        <v>1685106</v>
+        <v>1685706</v>
       </c>
       <c r="E1382" t="inlineStr">
         <is>
@@ -66694,10 +66694,10 @@
         </is>
       </c>
       <c r="C1383" t="n">
-        <v>4680</v>
+        <v>4685</v>
       </c>
       <c r="D1383" t="n">
-        <v>6327113</v>
+        <v>6332647</v>
       </c>
       <c r="E1383" t="inlineStr">
         <is>
@@ -66742,10 +66742,10 @@
         </is>
       </c>
       <c r="C1384" t="n">
-        <v>2398</v>
+        <v>2403</v>
       </c>
       <c r="D1384" t="n">
-        <v>3065581</v>
+        <v>3071925</v>
       </c>
       <c r="E1384" t="inlineStr">
         <is>
@@ -66838,10 +66838,10 @@
         </is>
       </c>
       <c r="C1386" t="n">
-        <v>2735</v>
+        <v>2744</v>
       </c>
       <c r="D1386" t="n">
-        <v>3202796</v>
+        <v>3214641</v>
       </c>
       <c r="E1386" t="inlineStr">
         <is>
@@ -66934,10 +66934,10 @@
         </is>
       </c>
       <c r="C1388" t="n">
-        <v>4189</v>
+        <v>4201</v>
       </c>
       <c r="D1388" t="n">
-        <v>5014526</v>
+        <v>5028149</v>
       </c>
       <c r="E1388" t="inlineStr">
         <is>
@@ -66982,10 +66982,10 @@
         </is>
       </c>
       <c r="C1389" t="n">
-        <v>5915</v>
+        <v>5916</v>
       </c>
       <c r="D1389" t="n">
-        <v>6708269</v>
+        <v>6708970</v>
       </c>
       <c r="E1389" t="inlineStr">
         <is>
@@ -67030,10 +67030,10 @@
         </is>
       </c>
       <c r="C1390" t="n">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="D1390" t="n">
-        <v>1363868</v>
+        <v>1368368</v>
       </c>
       <c r="E1390" t="inlineStr">
         <is>
@@ -67366,10 +67366,10 @@
         </is>
       </c>
       <c r="C1397" t="n">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="D1397" t="n">
-        <v>2939372</v>
+        <v>2940704</v>
       </c>
       <c r="E1397" t="inlineStr">
         <is>
@@ -67654,10 +67654,10 @@
         </is>
       </c>
       <c r="C1403" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D1403" t="n">
-        <v>735736</v>
+        <v>735960</v>
       </c>
       <c r="E1403" t="inlineStr">
         <is>
@@ -67750,10 +67750,10 @@
         </is>
       </c>
       <c r="C1405" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D1405" t="n">
-        <v>898119</v>
+        <v>899117</v>
       </c>
       <c r="E1405" t="inlineStr">
         <is>
@@ -67798,10 +67798,10 @@
         </is>
       </c>
       <c r="C1406" t="n">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="D1406" t="n">
-        <v>1558790</v>
+        <v>1560749</v>
       </c>
       <c r="E1406" t="inlineStr">
         <is>
@@ -67894,10 +67894,10 @@
         </is>
       </c>
       <c r="C1408" t="n">
-        <v>3482</v>
+        <v>3489</v>
       </c>
       <c r="D1408" t="n">
-        <v>4319274</v>
+        <v>4324587</v>
       </c>
       <c r="E1408" t="inlineStr">
         <is>
@@ -68086,10 +68086,10 @@
         </is>
       </c>
       <c r="C1412" t="n">
-        <v>15393</v>
+        <v>15400</v>
       </c>
       <c r="D1412" t="n">
-        <v>20395697</v>
+        <v>20406197</v>
       </c>
       <c r="E1412" t="inlineStr">
         <is>
@@ -68134,10 +68134,10 @@
         </is>
       </c>
       <c r="C1413" t="n">
-        <v>8471</v>
+        <v>8480</v>
       </c>
       <c r="D1413" t="n">
-        <v>11590693</v>
+        <v>11603463</v>
       </c>
       <c r="E1413" t="inlineStr">
         <is>
@@ -68182,10 +68182,10 @@
         </is>
       </c>
       <c r="C1414" t="n">
-        <v>11370</v>
+        <v>11378</v>
       </c>
       <c r="D1414" t="n">
-        <v>16150694</v>
+        <v>16162318</v>
       </c>
       <c r="E1414" t="inlineStr">
         <is>
@@ -68230,10 +68230,10 @@
         </is>
       </c>
       <c r="C1415" t="n">
-        <v>2589</v>
+        <v>2592</v>
       </c>
       <c r="D1415" t="n">
-        <v>3334107</v>
+        <v>3337007</v>
       </c>
       <c r="E1415" t="inlineStr">
         <is>
@@ -68374,10 +68374,10 @@
         </is>
       </c>
       <c r="C1418" t="n">
-        <v>11664</v>
+        <v>11674</v>
       </c>
       <c r="D1418" t="n">
-        <v>15622318</v>
+        <v>15637178</v>
       </c>
       <c r="E1418" t="inlineStr">
         <is>
@@ -68422,10 +68422,10 @@
         </is>
       </c>
       <c r="C1419" t="n">
-        <v>4996</v>
+        <v>5000</v>
       </c>
       <c r="D1419" t="n">
-        <v>6433119</v>
+        <v>6439119</v>
       </c>
       <c r="E1419" t="inlineStr">
         <is>
@@ -68470,10 +68470,10 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>6442</v>
+        <v>6455</v>
       </c>
       <c r="D1420" t="n">
-        <v>7355191</v>
+        <v>7369786</v>
       </c>
       <c r="E1420" t="inlineStr">
         <is>
@@ -68518,10 +68518,10 @@
         </is>
       </c>
       <c r="C1421" t="n">
-        <v>11264</v>
+        <v>11266</v>
       </c>
       <c r="D1421" t="n">
-        <v>14971173</v>
+        <v>14974173</v>
       </c>
       <c r="E1421" t="inlineStr">
         <is>
@@ -68566,10 +68566,10 @@
         </is>
       </c>
       <c r="C1422" t="n">
-        <v>7464</v>
+        <v>7484</v>
       </c>
       <c r="D1422" t="n">
-        <v>9012201</v>
+        <v>9035171</v>
       </c>
       <c r="E1422" t="inlineStr">
         <is>
@@ -68614,10 +68614,10 @@
         </is>
       </c>
       <c r="C1423" t="n">
-        <v>9248</v>
+        <v>9250</v>
       </c>
       <c r="D1423" t="n">
-        <v>10927726</v>
+        <v>10929871</v>
       </c>
       <c r="E1423" t="inlineStr">
         <is>
@@ -68758,10 +68758,10 @@
         </is>
       </c>
       <c r="C1426" t="n">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D1426" t="n">
-        <v>921155</v>
+        <v>922655</v>
       </c>
       <c r="E1426" t="inlineStr">
         <is>
@@ -68902,10 +68902,10 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>3447</v>
+        <v>3448</v>
       </c>
       <c r="D1429" t="n">
-        <v>4521621</v>
+        <v>4523121</v>
       </c>
       <c r="E1429" t="inlineStr">
         <is>
@@ -68950,10 +68950,10 @@
         </is>
       </c>
       <c r="C1430" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D1430" t="n">
-        <v>600717</v>
+        <v>605217</v>
       </c>
       <c r="E1430" t="inlineStr">
         <is>
@@ -68998,10 +68998,10 @@
         </is>
       </c>
       <c r="C1431" t="n">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="D1431" t="n">
-        <v>4894828</v>
+        <v>4896328</v>
       </c>
       <c r="E1431" t="inlineStr">
         <is>
@@ -69046,10 +69046,10 @@
         </is>
       </c>
       <c r="C1432" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D1432" t="n">
-        <v>255735</v>
+        <v>257235</v>
       </c>
       <c r="E1432" t="inlineStr">
         <is>
@@ -69382,10 +69382,10 @@
         </is>
       </c>
       <c r="C1439" t="n">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D1439" t="n">
-        <v>1582832</v>
+        <v>1584332</v>
       </c>
       <c r="E1439" t="inlineStr">
         <is>
@@ -69478,10 +69478,10 @@
         </is>
       </c>
       <c r="C1441" t="n">
-        <v>2711</v>
+        <v>2714</v>
       </c>
       <c r="D1441" t="n">
-        <v>3743680</v>
+        <v>3748180</v>
       </c>
       <c r="E1441" t="inlineStr">
         <is>
@@ -69574,10 +69574,10 @@
         </is>
       </c>
       <c r="C1443" t="n">
-        <v>3892</v>
+        <v>3894</v>
       </c>
       <c r="D1443" t="n">
-        <v>4858820</v>
+        <v>4861514</v>
       </c>
       <c r="E1443" t="inlineStr">
         <is>
@@ -69766,10 +69766,10 @@
         </is>
       </c>
       <c r="C1447" t="n">
-        <v>17542</v>
+        <v>17551</v>
       </c>
       <c r="D1447" t="n">
-        <v>23021534</v>
+        <v>23033305</v>
       </c>
       <c r="E1447" t="inlineStr">
         <is>
@@ -69814,10 +69814,10 @@
         </is>
       </c>
       <c r="C1448" t="n">
-        <v>3986</v>
+        <v>3991</v>
       </c>
       <c r="D1448" t="n">
-        <v>5324246</v>
+        <v>5330673</v>
       </c>
       <c r="E1448" t="inlineStr">
         <is>
@@ -69862,10 +69862,10 @@
         </is>
       </c>
       <c r="C1449" t="n">
-        <v>13683</v>
+        <v>13698</v>
       </c>
       <c r="D1449" t="n">
-        <v>19627081</v>
+        <v>19647975</v>
       </c>
       <c r="E1449" t="inlineStr">
         <is>
@@ -69910,10 +69910,10 @@
         </is>
       </c>
       <c r="C1450" t="n">
-        <v>2141</v>
+        <v>2145</v>
       </c>
       <c r="D1450" t="n">
-        <v>2752969</v>
+        <v>2757358</v>
       </c>
       <c r="E1450" t="inlineStr">
         <is>
@@ -70006,10 +70006,10 @@
         </is>
       </c>
       <c r="C1452" t="n">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="D1452" t="n">
-        <v>4851829</v>
+        <v>4853329</v>
       </c>
       <c r="E1452" t="inlineStr">
         <is>
@@ -70054,10 +70054,10 @@
         </is>
       </c>
       <c r="C1453" t="n">
-        <v>10688</v>
+        <v>10694</v>
       </c>
       <c r="D1453" t="n">
-        <v>14355874</v>
+        <v>14364545</v>
       </c>
       <c r="E1453" t="inlineStr">
         <is>
@@ -70102,10 +70102,10 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>4951</v>
+        <v>4952</v>
       </c>
       <c r="D1454" t="n">
-        <v>6392602</v>
+        <v>6393525</v>
       </c>
       <c r="E1454" t="inlineStr">
         <is>
@@ -70198,10 +70198,10 @@
         </is>
       </c>
       <c r="C1456" t="n">
-        <v>5713</v>
+        <v>5723</v>
       </c>
       <c r="D1456" t="n">
-        <v>6593765</v>
+        <v>6603225</v>
       </c>
       <c r="E1456" t="inlineStr">
         <is>
@@ -70294,10 +70294,10 @@
         </is>
       </c>
       <c r="C1458" t="n">
-        <v>7150</v>
+        <v>7171</v>
       </c>
       <c r="D1458" t="n">
-        <v>8824113</v>
+        <v>8850293</v>
       </c>
       <c r="E1458" t="inlineStr">
         <is>
@@ -70342,10 +70342,10 @@
         </is>
       </c>
       <c r="C1459" t="n">
-        <v>9407</v>
+        <v>9410</v>
       </c>
       <c r="D1459" t="n">
-        <v>10860960</v>
+        <v>10863630</v>
       </c>
       <c r="E1459" t="inlineStr">
         <is>
@@ -70390,10 +70390,10 @@
         </is>
       </c>
       <c r="C1460" t="n">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D1460" t="n">
-        <v>1075405</v>
+        <v>1076905</v>
       </c>
       <c r="E1460" t="inlineStr">
         <is>
@@ -70486,10 +70486,10 @@
         </is>
       </c>
       <c r="C1462" t="n">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D1462" t="n">
-        <v>936643</v>
+        <v>938143</v>
       </c>
       <c r="E1462" t="inlineStr">
         <is>
@@ -70726,10 +70726,10 @@
         </is>
       </c>
       <c r="C1467" t="n">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="D1467" t="n">
-        <v>3391217</v>
+        <v>3394217</v>
       </c>
       <c r="E1467" t="inlineStr">
         <is>
@@ -70918,10 +70918,10 @@
         </is>
       </c>
       <c r="C1471" t="n">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D1471" t="n">
-        <v>926210</v>
+        <v>929121</v>
       </c>
       <c r="E1471" t="inlineStr">
         <is>
@@ -71014,10 +71014,10 @@
         </is>
       </c>
       <c r="C1473" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D1473" t="n">
-        <v>531529</v>
+        <v>534389</v>
       </c>
       <c r="E1473" t="inlineStr">
         <is>
@@ -71110,10 +71110,10 @@
         </is>
       </c>
       <c r="C1475" t="n">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="D1475" t="n">
-        <v>952705</v>
+        <v>955881</v>
       </c>
       <c r="E1475" t="inlineStr">
         <is>
@@ -71542,10 +71542,10 @@
         </is>
       </c>
       <c r="C1484" t="n">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="D1484" t="n">
-        <v>1903756</v>
+        <v>1905706</v>
       </c>
       <c r="E1484" t="inlineStr">
         <is>
@@ -72070,10 +72070,10 @@
         </is>
       </c>
       <c r="C1495" t="n">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="D1495" t="n">
-        <v>2039121</v>
+        <v>2040621</v>
       </c>
       <c r="E1495" t="inlineStr">
         <is>
@@ -72214,10 +72214,10 @@
         </is>
       </c>
       <c r="C1498" t="n">
-        <v>4884</v>
+        <v>4885</v>
       </c>
       <c r="D1498" t="n">
-        <v>6937168</v>
+        <v>6938668</v>
       </c>
       <c r="E1498" t="inlineStr">
         <is>
@@ -72262,10 +72262,10 @@
         </is>
       </c>
       <c r="C1499" t="n">
-        <v>6805</v>
+        <v>6806</v>
       </c>
       <c r="D1499" t="n">
-        <v>8757557</v>
+        <v>8758383</v>
       </c>
       <c r="E1499" t="inlineStr">
         <is>
@@ -72358,10 +72358,10 @@
         </is>
       </c>
       <c r="C1501" t="n">
-        <v>5604</v>
+        <v>5614</v>
       </c>
       <c r="D1501" t="n">
-        <v>8002075</v>
+        <v>8014943</v>
       </c>
       <c r="E1501" t="inlineStr">
         <is>
@@ -72406,10 +72406,10 @@
         </is>
       </c>
       <c r="C1502" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D1502" t="n">
-        <v>620281</v>
+        <v>621781</v>
       </c>
       <c r="E1502" t="inlineStr">
         <is>
@@ -72550,10 +72550,10 @@
         </is>
       </c>
       <c r="C1505" t="n">
-        <v>3019</v>
+        <v>3029</v>
       </c>
       <c r="D1505" t="n">
-        <v>4098672</v>
+        <v>4109202</v>
       </c>
       <c r="E1505" t="inlineStr">
         <is>
@@ -72598,10 +72598,10 @@
         </is>
       </c>
       <c r="C1506" t="n">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="D1506" t="n">
-        <v>1934685</v>
+        <v>1937685</v>
       </c>
       <c r="E1506" t="inlineStr">
         <is>
@@ -72646,10 +72646,10 @@
         </is>
       </c>
       <c r="C1507" t="n">
-        <v>2096</v>
+        <v>2099</v>
       </c>
       <c r="D1507" t="n">
-        <v>2550193</v>
+        <v>2551211</v>
       </c>
       <c r="E1507" t="inlineStr">
         <is>
@@ -72694,10 +72694,10 @@
         </is>
       </c>
       <c r="C1508" t="n">
-        <v>3077</v>
+        <v>3079</v>
       </c>
       <c r="D1508" t="n">
-        <v>4204453</v>
+        <v>4206853</v>
       </c>
       <c r="E1508" t="inlineStr">
         <is>
@@ -72742,10 +72742,10 @@
         </is>
       </c>
       <c r="C1509" t="n">
-        <v>2271</v>
+        <v>2277</v>
       </c>
       <c r="D1509" t="n">
-        <v>2805154</v>
+        <v>2811180</v>
       </c>
       <c r="E1509" t="inlineStr">
         <is>
@@ -72934,10 +72934,10 @@
         </is>
       </c>
       <c r="C1513" t="n">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D1513" t="n">
-        <v>1800484</v>
+        <v>1800784</v>
       </c>
       <c r="E1513" t="inlineStr">
         <is>
@@ -73126,10 +73126,10 @@
         </is>
       </c>
       <c r="C1517" t="n">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="D1517" t="n">
-        <v>5502979</v>
+        <v>5504479</v>
       </c>
       <c r="E1517" t="inlineStr">
         <is>
@@ -73222,10 +73222,10 @@
         </is>
       </c>
       <c r="C1519" t="n">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="D1519" t="n">
-        <v>4126769</v>
+        <v>4128269</v>
       </c>
       <c r="E1519" t="inlineStr">
         <is>
@@ -73366,10 +73366,10 @@
         </is>
       </c>
       <c r="C1522" t="n">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D1522" t="n">
-        <v>926491</v>
+        <v>927991</v>
       </c>
       <c r="E1522" t="inlineStr">
         <is>
@@ -73510,10 +73510,10 @@
         </is>
       </c>
       <c r="C1525" t="n">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D1525" t="n">
-        <v>1690533</v>
+        <v>1691233</v>
       </c>
       <c r="E1525" t="inlineStr">
         <is>
@@ -73606,10 +73606,10 @@
         </is>
       </c>
       <c r="C1527" t="n">
-        <v>1700</v>
+        <v>1705</v>
       </c>
       <c r="D1527" t="n">
-        <v>1947175</v>
+        <v>1953387</v>
       </c>
       <c r="E1527" t="inlineStr">
         <is>
@@ -73654,10 +73654,10 @@
         </is>
       </c>
       <c r="C1528" t="n">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="D1528" t="n">
-        <v>3233627</v>
+        <v>3235127</v>
       </c>
       <c r="E1528" t="inlineStr">
         <is>
@@ -73990,10 +73990,10 @@
         </is>
       </c>
       <c r="C1535" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D1535" t="n">
-        <v>523412</v>
+        <v>524912</v>
       </c>
       <c r="E1535" t="inlineStr">
         <is>
@@ -74038,10 +74038,10 @@
         </is>
       </c>
       <c r="C1536" t="n">
-        <v>2040</v>
+        <v>2043</v>
       </c>
       <c r="D1536" t="n">
-        <v>2787582</v>
+        <v>2791301</v>
       </c>
       <c r="E1536" t="inlineStr">
         <is>
@@ -74422,10 +74422,10 @@
         </is>
       </c>
       <c r="C1544" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D1544" t="n">
-        <v>1161826</v>
+        <v>1161926</v>
       </c>
       <c r="E1544" t="inlineStr">
         <is>
@@ -74470,10 +74470,10 @@
         </is>
       </c>
       <c r="C1545" t="n">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="D1545" t="n">
-        <v>2071398</v>
+        <v>2072898</v>
       </c>
       <c r="E1545" t="inlineStr">
         <is>
@@ -74614,10 +74614,10 @@
         </is>
       </c>
       <c r="C1548" t="n">
-        <v>3165</v>
+        <v>3167</v>
       </c>
       <c r="D1548" t="n">
-        <v>3866762</v>
+        <v>3869762</v>
       </c>
       <c r="E1548" t="inlineStr">
         <is>
@@ -74710,10 +74710,10 @@
         </is>
       </c>
       <c r="C1550" t="n">
-        <v>7367</v>
+        <v>7368</v>
       </c>
       <c r="D1550" t="n">
-        <v>10595967</v>
+        <v>10597467</v>
       </c>
       <c r="E1550" t="inlineStr">
         <is>
@@ -74758,10 +74758,10 @@
         </is>
       </c>
       <c r="C1551" t="n">
-        <v>11463</v>
+        <v>11471</v>
       </c>
       <c r="D1551" t="n">
-        <v>15046964</v>
+        <v>15057954</v>
       </c>
       <c r="E1551" t="inlineStr">
         <is>
@@ -74854,10 +74854,10 @@
         </is>
       </c>
       <c r="C1553" t="n">
-        <v>9017</v>
+        <v>9019</v>
       </c>
       <c r="D1553" t="n">
-        <v>12966036</v>
+        <v>12969036</v>
       </c>
       <c r="E1553" t="inlineStr">
         <is>
@@ -74902,10 +74902,10 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>2155</v>
+        <v>2159</v>
       </c>
       <c r="D1554" t="n">
-        <v>2806704</v>
+        <v>2811804</v>
       </c>
       <c r="E1554" t="inlineStr">
         <is>
@@ -75046,10 +75046,10 @@
         </is>
       </c>
       <c r="C1557" t="n">
-        <v>9842</v>
+        <v>9851</v>
       </c>
       <c r="D1557" t="n">
-        <v>13244291</v>
+        <v>13255960</v>
       </c>
       <c r="E1557" t="inlineStr">
         <is>
@@ -75094,10 +75094,10 @@
         </is>
       </c>
       <c r="C1558" t="n">
-        <v>3105</v>
+        <v>3110</v>
       </c>
       <c r="D1558" t="n">
-        <v>4039556</v>
+        <v>4046836</v>
       </c>
       <c r="E1558" t="inlineStr">
         <is>
@@ -75142,10 +75142,10 @@
         </is>
       </c>
       <c r="C1559" t="n">
-        <v>4196</v>
+        <v>4198</v>
       </c>
       <c r="D1559" t="n">
-        <v>4984096</v>
+        <v>4985676</v>
       </c>
       <c r="E1559" t="inlineStr">
         <is>
@@ -75190,10 +75190,10 @@
         </is>
       </c>
       <c r="C1560" t="n">
-        <v>9629</v>
+        <v>9630</v>
       </c>
       <c r="D1560" t="n">
-        <v>12708861</v>
+        <v>12709750</v>
       </c>
       <c r="E1560" t="inlineStr">
         <is>
@@ -75238,10 +75238,10 @@
         </is>
       </c>
       <c r="C1561" t="n">
-        <v>6626</v>
+        <v>6634</v>
       </c>
       <c r="D1561" t="n">
-        <v>8019150</v>
+        <v>8030437</v>
       </c>
       <c r="E1561" t="inlineStr">
         <is>
@@ -75286,10 +75286,10 @@
         </is>
       </c>
       <c r="C1562" t="n">
-        <v>7852</v>
+        <v>7855</v>
       </c>
       <c r="D1562" t="n">
-        <v>9529632</v>
+        <v>9531901</v>
       </c>
       <c r="E1562" t="inlineStr">
         <is>
@@ -75334,10 +75334,10 @@
         </is>
       </c>
       <c r="C1563" t="n">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="D1563" t="n">
-        <v>1389650</v>
+        <v>1393519</v>
       </c>
       <c r="E1563" t="inlineStr">
         <is>
@@ -75382,10 +75382,10 @@
         </is>
       </c>
       <c r="C1564" t="n">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="D1564" t="n">
-        <v>2120781</v>
+        <v>2120834</v>
       </c>
       <c r="E1564" t="inlineStr">
         <is>
@@ -75526,10 +75526,10 @@
         </is>
       </c>
       <c r="C1567" t="n">
-        <v>3914</v>
+        <v>3915</v>
       </c>
       <c r="D1567" t="n">
-        <v>5550564</v>
+        <v>5552064</v>
       </c>
       <c r="E1567" t="inlineStr">
         <is>
@@ -75574,10 +75574,10 @@
         </is>
       </c>
       <c r="C1568" t="n">
-        <v>5789</v>
+        <v>5790</v>
       </c>
       <c r="D1568" t="n">
-        <v>7513255</v>
+        <v>7514755</v>
       </c>
       <c r="E1568" t="inlineStr">
         <is>
@@ -75670,10 +75670,10 @@
         </is>
       </c>
       <c r="C1570" t="n">
-        <v>5182</v>
+        <v>5185</v>
       </c>
       <c r="D1570" t="n">
-        <v>7375207</v>
+        <v>7378236</v>
       </c>
       <c r="E1570" t="inlineStr">
         <is>
@@ -75718,10 +75718,10 @@
         </is>
       </c>
       <c r="C1571" t="n">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D1571" t="n">
-        <v>821178</v>
+        <v>822401</v>
       </c>
       <c r="E1571" t="inlineStr">
         <is>
@@ -75814,10 +75814,10 @@
         </is>
       </c>
       <c r="C1573" t="n">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="D1573" t="n">
-        <v>1406339</v>
+        <v>1410839</v>
       </c>
       <c r="E1573" t="inlineStr">
         <is>
@@ -75862,10 +75862,10 @@
         </is>
       </c>
       <c r="C1574" t="n">
-        <v>3299</v>
+        <v>3306</v>
       </c>
       <c r="D1574" t="n">
-        <v>4397554</v>
+        <v>4405614</v>
       </c>
       <c r="E1574" t="inlineStr">
         <is>
@@ -75958,10 +75958,10 @@
         </is>
       </c>
       <c r="C1576" t="n">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="D1576" t="n">
-        <v>2206500</v>
+        <v>2207404</v>
       </c>
       <c r="E1576" t="inlineStr">
         <is>
@@ -76054,10 +76054,10 @@
         </is>
       </c>
       <c r="C1578" t="n">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c r="D1578" t="n">
-        <v>3489342</v>
+        <v>3492342</v>
       </c>
       <c r="E1578" t="inlineStr">
         <is>
@@ -76102,10 +76102,10 @@
         </is>
       </c>
       <c r="C1579" t="n">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="D1579" t="n">
-        <v>5305938</v>
+        <v>5306746</v>
       </c>
       <c r="E1579" t="inlineStr">
         <is>
@@ -76486,10 +76486,10 @@
         </is>
       </c>
       <c r="C1587" t="n">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="D1587" t="n">
-        <v>2679830</v>
+        <v>2681130</v>
       </c>
       <c r="E1587" t="inlineStr">
         <is>
@@ -76534,10 +76534,10 @@
         </is>
       </c>
       <c r="C1588" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D1588" t="n">
-        <v>278369</v>
+        <v>279451</v>
       </c>
       <c r="E1588" t="inlineStr">
         <is>
@@ -76678,10 +76678,10 @@
         </is>
       </c>
       <c r="C1591" t="n">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D1591" t="n">
-        <v>1118293</v>
+        <v>1121293</v>
       </c>
       <c r="E1591" t="inlineStr">
         <is>
@@ -76918,10 +76918,10 @@
         </is>
       </c>
       <c r="C1596" t="n">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="D1596" t="n">
-        <v>1933733</v>
+        <v>1936733</v>
       </c>
       <c r="E1596" t="inlineStr">
         <is>
@@ -77014,10 +77014,10 @@
         </is>
       </c>
       <c r="C1598" t="n">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D1598" t="n">
-        <v>1158540</v>
+        <v>1159884</v>
       </c>
       <c r="E1598" t="inlineStr">
         <is>
@@ -77110,10 +77110,10 @@
         </is>
       </c>
       <c r="C1600" t="n">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="D1600" t="n">
-        <v>3145149</v>
+        <v>3146199</v>
       </c>
       <c r="E1600" t="inlineStr">
         <is>
@@ -77158,10 +77158,10 @@
         </is>
       </c>
       <c r="C1601" t="n">
-        <v>3853</v>
+        <v>3856</v>
       </c>
       <c r="D1601" t="n">
-        <v>4848717</v>
+        <v>4851817</v>
       </c>
       <c r="E1601" t="inlineStr">
         <is>
@@ -77254,10 +77254,10 @@
         </is>
       </c>
       <c r="C1603" t="n">
-        <v>3190</v>
+        <v>3193</v>
       </c>
       <c r="D1603" t="n">
-        <v>4556393</v>
+        <v>4560893</v>
       </c>
       <c r="E1603" t="inlineStr">
         <is>
@@ -77302,10 +77302,10 @@
         </is>
       </c>
       <c r="C1604" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D1604" t="n">
-        <v>465560</v>
+        <v>467060</v>
       </c>
       <c r="E1604" t="inlineStr">
         <is>
@@ -77446,10 +77446,10 @@
         </is>
       </c>
       <c r="C1607" t="n">
-        <v>1786</v>
+        <v>1790</v>
       </c>
       <c r="D1607" t="n">
-        <v>2355836</v>
+        <v>2358066</v>
       </c>
       <c r="E1607" t="inlineStr">
         <is>
@@ -77590,10 +77590,10 @@
         </is>
       </c>
       <c r="C1610" t="n">
-        <v>1829</v>
+        <v>1832</v>
       </c>
       <c r="D1610" t="n">
-        <v>2405988</v>
+        <v>2410488</v>
       </c>
       <c r="E1610" t="inlineStr">
         <is>
@@ -77638,10 +77638,10 @@
         </is>
       </c>
       <c r="C1611" t="n">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D1611" t="n">
-        <v>1816211</v>
+        <v>1817144</v>
       </c>
       <c r="E1611" t="inlineStr">
         <is>
@@ -77686,10 +77686,10 @@
         </is>
       </c>
       <c r="C1612" t="n">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="D1612" t="n">
-        <v>3732629</v>
+        <v>3734129</v>
       </c>
       <c r="E1612" t="inlineStr">
         <is>
@@ -78310,10 +78310,10 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="D1625" t="n">
-        <v>3814609</v>
+        <v>3816109</v>
       </c>
       <c r="E1625" t="inlineStr">
         <is>
@@ -78358,10 +78358,10 @@
         </is>
       </c>
       <c r="C1626" t="n">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="D1626" t="n">
-        <v>1769877</v>
+        <v>1772877</v>
       </c>
       <c r="E1626" t="inlineStr">
         <is>
@@ -78406,10 +78406,10 @@
         </is>
       </c>
       <c r="C1627" t="n">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="D1627" t="n">
-        <v>1676771</v>
+        <v>1677848</v>
       </c>
       <c r="E1627" t="inlineStr">
         <is>
@@ -78454,10 +78454,10 @@
         </is>
       </c>
       <c r="C1628" t="n">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="D1628" t="n">
-        <v>4244339</v>
+        <v>4245839</v>
       </c>
       <c r="E1628" t="inlineStr">
         <is>
@@ -78502,10 +78502,10 @@
         </is>
       </c>
       <c r="C1629" t="n">
-        <v>2344</v>
+        <v>2348</v>
       </c>
       <c r="D1629" t="n">
-        <v>2765312</v>
+        <v>2768867</v>
       </c>
       <c r="E1629" t="inlineStr">
         <is>
@@ -78598,10 +78598,10 @@
         </is>
       </c>
       <c r="C1631" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D1631" t="n">
-        <v>697695</v>
+        <v>699195</v>
       </c>
       <c r="E1631" t="inlineStr">
         <is>
@@ -78694,10 +78694,10 @@
         </is>
       </c>
       <c r="C1633" t="n">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D1633" t="n">
-        <v>1023965</v>
+        <v>1024633</v>
       </c>
       <c r="E1633" t="inlineStr">
         <is>
@@ -78982,10 +78982,10 @@
         </is>
       </c>
       <c r="C1639" t="n">
-        <v>3032</v>
+        <v>3035</v>
       </c>
       <c r="D1639" t="n">
-        <v>4288032</v>
+        <v>4292532</v>
       </c>
       <c r="E1639" t="inlineStr">
         <is>
@@ -79606,10 +79606,10 @@
         </is>
       </c>
       <c r="C1652" t="n">
-        <v>12935</v>
+        <v>12938</v>
       </c>
       <c r="D1652" t="n">
-        <v>18564284</v>
+        <v>18567886</v>
       </c>
       <c r="E1652" t="inlineStr">
         <is>
@@ -79654,10 +79654,10 @@
         </is>
       </c>
       <c r="C1653" t="n">
-        <v>19187</v>
+        <v>19204</v>
       </c>
       <c r="D1653" t="n">
-        <v>25756821</v>
+        <v>25779838</v>
       </c>
       <c r="E1653" t="inlineStr">
         <is>
@@ -79702,10 +79702,10 @@
         </is>
       </c>
       <c r="C1654" t="n">
-        <v>14371</v>
+        <v>14377</v>
       </c>
       <c r="D1654" t="n">
-        <v>20367481</v>
+        <v>20376481</v>
       </c>
       <c r="E1654" t="inlineStr">
         <is>
@@ -79750,10 +79750,10 @@
         </is>
       </c>
       <c r="C1655" t="n">
-        <v>15636</v>
+        <v>15656</v>
       </c>
       <c r="D1655" t="n">
-        <v>22674766</v>
+        <v>22704631</v>
       </c>
       <c r="E1655" t="inlineStr">
         <is>
@@ -79798,10 +79798,10 @@
         </is>
       </c>
       <c r="C1656" t="n">
-        <v>2529</v>
+        <v>2534</v>
       </c>
       <c r="D1656" t="n">
-        <v>3327708</v>
+        <v>3335208</v>
       </c>
       <c r="E1656" t="inlineStr">
         <is>
@@ -79894,10 +79894,10 @@
         </is>
       </c>
       <c r="C1658" t="n">
-        <v>6834</v>
+        <v>6847</v>
       </c>
       <c r="D1658" t="n">
-        <v>9521790</v>
+        <v>9539563</v>
       </c>
       <c r="E1658" t="inlineStr">
         <is>
@@ -79942,10 +79942,10 @@
         </is>
       </c>
       <c r="C1659" t="n">
-        <v>11742</v>
+        <v>11753</v>
       </c>
       <c r="D1659" t="n">
-        <v>15901536</v>
+        <v>15917536</v>
       </c>
       <c r="E1659" t="inlineStr">
         <is>
@@ -79990,10 +79990,10 @@
         </is>
       </c>
       <c r="C1660" t="n">
-        <v>7830</v>
+        <v>7841</v>
       </c>
       <c r="D1660" t="n">
-        <v>10322638</v>
+        <v>10336099</v>
       </c>
       <c r="E1660" t="inlineStr">
         <is>
@@ -80038,10 +80038,10 @@
         </is>
       </c>
       <c r="C1661" t="n">
-        <v>6753</v>
+        <v>6763</v>
       </c>
       <c r="D1661" t="n">
-        <v>8074244</v>
+        <v>8085163</v>
       </c>
       <c r="E1661" t="inlineStr">
         <is>
@@ -80134,10 +80134,10 @@
         </is>
       </c>
       <c r="C1663" t="n">
-        <v>6816</v>
+        <v>6835</v>
       </c>
       <c r="D1663" t="n">
-        <v>8470933</v>
+        <v>8490764</v>
       </c>
       <c r="E1663" t="inlineStr">
         <is>
@@ -80182,10 +80182,10 @@
         </is>
       </c>
       <c r="C1664" t="n">
-        <v>11335</v>
+        <v>11339</v>
       </c>
       <c r="D1664" t="n">
-        <v>13865095</v>
+        <v>13870357</v>
       </c>
       <c r="E1664" t="inlineStr">
         <is>
@@ -80278,10 +80278,10 @@
         </is>
       </c>
       <c r="C1666" t="n">
-        <v>6221</v>
+        <v>6225</v>
       </c>
       <c r="D1666" t="n">
-        <v>8140790</v>
+        <v>8146075</v>
       </c>
       <c r="E1666" t="inlineStr">
         <is>
@@ -80422,10 +80422,10 @@
         </is>
       </c>
       <c r="C1669" t="n">
-        <v>16478</v>
+        <v>16482</v>
       </c>
       <c r="D1669" t="n">
-        <v>23526867</v>
+        <v>23532540</v>
       </c>
       <c r="E1669" t="inlineStr">
         <is>
@@ -80470,10 +80470,10 @@
         </is>
       </c>
       <c r="C1670" t="n">
-        <v>28112</v>
+        <v>28124</v>
       </c>
       <c r="D1670" t="n">
-        <v>37289600</v>
+        <v>37307286</v>
       </c>
       <c r="E1670" t="inlineStr">
         <is>
@@ -80518,10 +80518,10 @@
         </is>
       </c>
       <c r="C1671" t="n">
-        <v>11359</v>
+        <v>11372</v>
       </c>
       <c r="D1671" t="n">
-        <v>15909400</v>
+        <v>15927089</v>
       </c>
       <c r="E1671" t="inlineStr">
         <is>
@@ -80566,10 +80566,10 @@
         </is>
       </c>
       <c r="C1672" t="n">
-        <v>20890</v>
+        <v>20983</v>
       </c>
       <c r="D1672" t="n">
-        <v>30090925</v>
+        <v>30223964</v>
       </c>
       <c r="E1672" t="inlineStr">
         <is>
@@ -80614,10 +80614,10 @@
         </is>
       </c>
       <c r="C1673" t="n">
-        <v>3731</v>
+        <v>3735</v>
       </c>
       <c r="D1673" t="n">
-        <v>4892508</v>
+        <v>4898508</v>
       </c>
       <c r="E1673" t="inlineStr">
         <is>
@@ -80710,10 +80710,10 @@
         </is>
       </c>
       <c r="C1675" t="n">
-        <v>4559</v>
+        <v>4561</v>
       </c>
       <c r="D1675" t="n">
-        <v>6298340</v>
+        <v>6301340</v>
       </c>
       <c r="E1675" t="inlineStr">
         <is>
@@ -80758,10 +80758,10 @@
         </is>
       </c>
       <c r="C1676" t="n">
-        <v>18034</v>
+        <v>18058</v>
       </c>
       <c r="D1676" t="n">
-        <v>24497056</v>
+        <v>24530494</v>
       </c>
       <c r="E1676" t="inlineStr">
         <is>
@@ -80806,10 +80806,10 @@
         </is>
       </c>
       <c r="C1677" t="n">
-        <v>7761</v>
+        <v>7770</v>
       </c>
       <c r="D1677" t="n">
-        <v>10139418</v>
+        <v>10152043</v>
       </c>
       <c r="E1677" t="inlineStr">
         <is>
@@ -80854,10 +80854,10 @@
         </is>
       </c>
       <c r="C1678" t="n">
-        <v>7986</v>
+        <v>7993</v>
       </c>
       <c r="D1678" t="n">
-        <v>9344494</v>
+        <v>9350861</v>
       </c>
       <c r="E1678" t="inlineStr">
         <is>
@@ -80950,10 +80950,10 @@
         </is>
       </c>
       <c r="C1680" t="n">
-        <v>10823</v>
+        <v>10843</v>
       </c>
       <c r="D1680" t="n">
-        <v>13465601</v>
+        <v>13492599</v>
       </c>
       <c r="E1680" t="inlineStr">
         <is>
@@ -80998,10 +80998,10 @@
         </is>
       </c>
       <c r="C1681" t="n">
-        <v>14692</v>
+        <v>14697</v>
       </c>
       <c r="D1681" t="n">
-        <v>17528658</v>
+        <v>17534374</v>
       </c>
       <c r="E1681" t="inlineStr">
         <is>
@@ -81142,10 +81142,10 @@
         </is>
       </c>
       <c r="C1684" t="n">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D1684" t="n">
-        <v>902437</v>
+        <v>904293</v>
       </c>
       <c r="E1684" t="inlineStr">
         <is>
@@ -81382,10 +81382,10 @@
         </is>
       </c>
       <c r="C1689" t="n">
-        <v>3113</v>
+        <v>3115</v>
       </c>
       <c r="D1689" t="n">
-        <v>4429000</v>
+        <v>4431125</v>
       </c>
       <c r="E1689" t="inlineStr">
         <is>
@@ -81574,10 +81574,10 @@
         </is>
       </c>
       <c r="C1693" t="n">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D1693" t="n">
-        <v>1356108</v>
+        <v>1359108</v>
       </c>
       <c r="E1693" t="inlineStr">
         <is>
@@ -81622,10 +81622,10 @@
         </is>
       </c>
       <c r="C1694" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D1694" t="n">
-        <v>728911</v>
+        <v>729399</v>
       </c>
       <c r="E1694" t="inlineStr">
         <is>
@@ -81670,10 +81670,10 @@
         </is>
       </c>
       <c r="C1695" t="n">
-        <v>3743</v>
+        <v>3749</v>
       </c>
       <c r="D1695" t="n">
-        <v>4968110</v>
+        <v>4976834</v>
       </c>
       <c r="E1695" t="inlineStr">
         <is>
@@ -81766,10 +81766,10 @@
         </is>
       </c>
       <c r="C1697" t="n">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D1697" t="n">
-        <v>2054262</v>
+        <v>2054639</v>
       </c>
       <c r="E1697" t="inlineStr">
         <is>
@@ -81862,10 +81862,10 @@
         </is>
       </c>
       <c r="C1699" t="n">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="D1699" t="n">
-        <v>2244349</v>
+        <v>2245849</v>
       </c>
       <c r="E1699" t="inlineStr">
         <is>
@@ -81958,10 +81958,10 @@
         </is>
       </c>
       <c r="C1701" t="n">
-        <v>4307</v>
+        <v>4312</v>
       </c>
       <c r="D1701" t="n">
-        <v>5472660</v>
+        <v>5479122</v>
       </c>
       <c r="E1701" t="inlineStr">
         <is>
@@ -82102,10 +82102,10 @@
         </is>
       </c>
       <c r="C1704" t="n">
-        <v>12615</v>
+        <v>12618</v>
       </c>
       <c r="D1704" t="n">
-        <v>17877293</v>
+        <v>17881246</v>
       </c>
       <c r="E1704" t="inlineStr">
         <is>
@@ -82150,10 +82150,10 @@
         </is>
       </c>
       <c r="C1705" t="n">
-        <v>18393</v>
+        <v>18397</v>
       </c>
       <c r="D1705" t="n">
-        <v>24281697</v>
+        <v>24287697</v>
       </c>
       <c r="E1705" t="inlineStr">
         <is>
@@ -82198,10 +82198,10 @@
         </is>
       </c>
       <c r="C1706" t="n">
-        <v>2873</v>
+        <v>2876</v>
       </c>
       <c r="D1706" t="n">
-        <v>3967936</v>
+        <v>3972388</v>
       </c>
       <c r="E1706" t="inlineStr">
         <is>
@@ -82246,10 +82246,10 @@
         </is>
       </c>
       <c r="C1707" t="n">
-        <v>12168</v>
+        <v>12174</v>
       </c>
       <c r="D1707" t="n">
-        <v>17418707</v>
+        <v>17427159</v>
       </c>
       <c r="E1707" t="inlineStr">
         <is>
@@ -82438,10 +82438,10 @@
         </is>
       </c>
       <c r="C1711" t="n">
-        <v>7682</v>
+        <v>7694</v>
       </c>
       <c r="D1711" t="n">
-        <v>10258091</v>
+        <v>10272505</v>
       </c>
       <c r="E1711" t="inlineStr">
         <is>
@@ -82486,10 +82486,10 @@
         </is>
       </c>
       <c r="C1712" t="n">
-        <v>5612</v>
+        <v>5616</v>
       </c>
       <c r="D1712" t="n">
-        <v>7208844</v>
+        <v>7214844</v>
       </c>
       <c r="E1712" t="inlineStr">
         <is>
@@ -82582,10 +82582,10 @@
         </is>
       </c>
       <c r="C1714" t="n">
-        <v>4861</v>
+        <v>4864</v>
       </c>
       <c r="D1714" t="n">
-        <v>5683826</v>
+        <v>5685594</v>
       </c>
       <c r="E1714" t="inlineStr">
         <is>
@@ -82678,10 +82678,10 @@
         </is>
       </c>
       <c r="C1716" t="n">
-        <v>4955</v>
+        <v>4963</v>
       </c>
       <c r="D1716" t="n">
-        <v>6193488</v>
+        <v>6203612</v>
       </c>
       <c r="E1716" t="inlineStr">
         <is>
@@ -83062,10 +83062,10 @@
         </is>
       </c>
       <c r="C1724" t="n">
-        <v>10696</v>
+        <v>10698</v>
       </c>
       <c r="D1724" t="n">
-        <v>14071192</v>
+        <v>14073277</v>
       </c>
       <c r="E1724" t="inlineStr">
         <is>
@@ -83110,10 +83110,10 @@
         </is>
       </c>
       <c r="C1725" t="n">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D1725" t="n">
-        <v>1874371</v>
+        <v>1875871</v>
       </c>
       <c r="E1725" t="inlineStr">
         <is>
@@ -83158,10 +83158,10 @@
         </is>
       </c>
       <c r="C1726" t="n">
-        <v>7408</v>
+        <v>7418</v>
       </c>
       <c r="D1726" t="n">
-        <v>10592352</v>
+        <v>10608028</v>
       </c>
       <c r="E1726" t="inlineStr">
         <is>
@@ -83206,10 +83206,10 @@
         </is>
       </c>
       <c r="C1727" t="n">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D1727" t="n">
-        <v>1006356</v>
+        <v>1007856</v>
       </c>
       <c r="E1727" t="inlineStr">
         <is>
@@ -83350,10 +83350,10 @@
         </is>
       </c>
       <c r="C1730" t="n">
-        <v>3695</v>
+        <v>3696</v>
       </c>
       <c r="D1730" t="n">
-        <v>4973847</v>
+        <v>4975347</v>
       </c>
       <c r="E1730" t="inlineStr">
         <is>
@@ -83398,10 +83398,10 @@
         </is>
       </c>
       <c r="C1731" t="n">
-        <v>2426</v>
+        <v>2428</v>
       </c>
       <c r="D1731" t="n">
-        <v>3127895</v>
+        <v>3130193</v>
       </c>
       <c r="E1731" t="inlineStr">
         <is>
@@ -83446,10 +83446,10 @@
         </is>
       </c>
       <c r="C1732" t="n">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="D1732" t="n">
-        <v>2647484</v>
+        <v>2647819</v>
       </c>
       <c r="E1732" t="inlineStr">
         <is>
@@ -83542,10 +83542,10 @@
         </is>
       </c>
       <c r="C1734" t="n">
-        <v>3493</v>
+        <v>3495</v>
       </c>
       <c r="D1734" t="n">
-        <v>4284675</v>
+        <v>4286053</v>
       </c>
       <c r="E1734" t="inlineStr">
         <is>
@@ -83590,10 +83590,10 @@
         </is>
       </c>
       <c r="C1735" t="n">
-        <v>4817</v>
+        <v>4820</v>
       </c>
       <c r="D1735" t="n">
-        <v>5659763</v>
+        <v>5663863</v>
       </c>
       <c r="E1735" t="inlineStr">
         <is>
